--- a/requirements/MOSIP_FeaturesRoadmap.xlsx
+++ b/requirements/MOSIP_FeaturesRoadmap.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\m1032103\Desktop\PROJECTS\MOSIP\Travel Expenses\Trip_11_23Dec-05Jul1'9\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\M1045452\Documents\GitHub\mosip\requirements\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{CE6E4BC4-58B8-4F06-AD6B-2738610D13E7}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2953C7CA-578C-42EE-B7BC-F7D87FC63ED2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9675" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9680" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="MOSIP_Feature_Roadmap" sheetId="5" r:id="rId1"/>
@@ -19,9 +19,9 @@
     <sheet name="Status Legends" sheetId="8" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">MOSIP_Feature_Roadmap!$A$2:$Q$76</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">MOSIP_Feature_Roadmap!$A$2:$Q$83</definedName>
   </definedNames>
-  <calcPr calcId="179017"/>
+  <calcPr calcId="179021"/>
   <pivotCaches>
     <pivotCache cacheId="0" r:id="rId5"/>
   </pivotCaches>
@@ -30,12 +30,17 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+      </xcalcf:calcFeatures>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="795" uniqueCount="257">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="798" uniqueCount="258">
   <si>
     <t>S.No.</t>
   </si>
@@ -666,9 +671,6 @@
   </si>
   <si>
     <t xml:space="preserve">FP received from CNIE via update interface of MOSIP, to extract minutiae etc. </t>
-  </si>
-  <si>
-    <t>36</t>
   </si>
   <si>
     <r>
@@ -1476,9 +1478,6 @@
     </r>
   </si>
   <si>
-    <t>Since there was no poc on ABIS we need to check abis APIs works, input and output to create dummy abis.</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <u/>
@@ -2509,9 +2508,6 @@
     <t>Sprint 5</t>
   </si>
   <si>
-    <t>Need clarity on requirements</t>
-  </si>
-  <si>
     <t>Code to be removed</t>
   </si>
   <si>
@@ -3054,6 +3050,20 @@
 ii. Implication on testing to be evaluated
 iii. Biztalk</t>
     </r>
+  </si>
+  <si>
+    <t>Need clarity on requirements hence we have High Estimates</t>
+  </si>
+  <si>
+    <t>Clarity and Design of Multi-ABIS is not Clear. Hence, we have high estimates</t>
+  </si>
+  <si>
+    <t>Manual Verification as part of CNIE data mis-match would be part of SI scope, as concluded during the conference call with GoM/PwC on 12Dec’19 – Refer atatched mail (Point 1.d.iv)
+On the Manual Verification post biometric deduplication failure – This has been de-scoped to v2 of MOSIP (Tracked in the Features Roadmap tracker).</t>
+  </si>
+  <si>
+    <t>Dev in Progress
+Kernel is developing API for the same</t>
   </si>
 </sst>
 </file>
@@ -3549,9 +3559,6 @@
     <xf numFmtId="49" fontId="2" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="2" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -3582,6 +3589,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3594,8 +3604,8 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="49" fontId="2" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -5154,38 +5164,39 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:S83"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A78" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="2" topLeftCell="A71" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A84" sqref="A84"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.28515625" defaultRowHeight="14.25" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="20.26953125" defaultRowHeight="14" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="6.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.453125" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14" style="2" customWidth="1"/>
-    <col min="3" max="3" width="30.42578125" style="2" customWidth="1"/>
-    <col min="4" max="4" width="15.7109375" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.7109375" style="3" customWidth="1"/>
-    <col min="6" max="6" width="71.140625" style="3" customWidth="1"/>
-    <col min="7" max="7" width="13.28515625" style="17" customWidth="1"/>
-    <col min="8" max="8" width="44.42578125" style="3" customWidth="1"/>
-    <col min="9" max="9" width="9.28515625" style="3" customWidth="1"/>
-    <col min="10" max="10" width="20.85546875" style="3" customWidth="1"/>
-    <col min="11" max="11" width="12.28515625" style="3" customWidth="1"/>
-    <col min="12" max="12" width="12.5703125" style="3" customWidth="1"/>
-    <col min="13" max="13" width="15.140625" style="29" customWidth="1"/>
-    <col min="14" max="14" width="15.85546875" style="2" customWidth="1"/>
-    <col min="15" max="15" width="15.85546875" style="11" customWidth="1"/>
-    <col min="16" max="16" width="15.85546875" style="2" customWidth="1"/>
-    <col min="17" max="17" width="35" style="3" customWidth="1"/>
-    <col min="18" max="16384" width="20.28515625" style="11"/>
+    <col min="3" max="3" width="30.453125" style="2" customWidth="1"/>
+    <col min="4" max="4" width="15.7265625" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.7265625" style="3" customWidth="1"/>
+    <col min="6" max="6" width="71.1796875" style="3" customWidth="1"/>
+    <col min="7" max="7" width="13.26953125" style="17" customWidth="1"/>
+    <col min="8" max="8" width="44.453125" style="3" customWidth="1"/>
+    <col min="9" max="9" width="9.26953125" style="3" customWidth="1"/>
+    <col min="10" max="10" width="20.81640625" style="3" customWidth="1"/>
+    <col min="11" max="11" width="12.26953125" style="3" customWidth="1"/>
+    <col min="12" max="12" width="12.54296875" style="3" customWidth="1"/>
+    <col min="13" max="13" width="15.1796875" style="29" customWidth="1"/>
+    <col min="14" max="14" width="15.81640625" style="2" customWidth="1"/>
+    <col min="15" max="15" width="15.81640625" style="11" customWidth="1"/>
+    <col min="16" max="16" width="15.81640625" style="2" customWidth="1"/>
+    <col min="17" max="17" width="53.7265625" style="3" customWidth="1"/>
+    <col min="18" max="16384" width="20.26953125" style="11"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:17" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="78" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="B1" s="79"/>
       <c r="C1" s="79"/>
@@ -5204,7 +5215,7 @@
       <c r="P1" s="79"/>
       <c r="Q1" s="81"/>
     </row>
-    <row r="2" spans="1:17" ht="57" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" ht="42" x14ac:dyDescent="0.35">
       <c r="A2" s="19" t="s">
         <v>0</v>
       </c>
@@ -5242,22 +5253,22 @@
         <v>11</v>
       </c>
       <c r="M2" s="26" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="N2" s="21" t="s">
         <v>12</v>
       </c>
       <c r="O2" s="61" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="P2" s="21" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="Q2" s="21" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:17" s="4" customFormat="1" ht="128.25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:17" s="4" customFormat="1" ht="112" hidden="1" x14ac:dyDescent="0.35">
       <c r="A3" s="5">
         <v>1</v>
       </c>
@@ -5298,7 +5309,7 @@
         <v>36</v>
       </c>
       <c r="N3" s="32" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="O3" s="32"/>
       <c r="P3" s="32"/>
@@ -5306,7 +5317,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="1:17" s="4" customFormat="1" ht="57" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:17" s="4" customFormat="1" ht="56" hidden="1" x14ac:dyDescent="0.35">
       <c r="A4" s="5">
         <v>2</v>
       </c>
@@ -5355,7 +5366,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="5" spans="1:17" s="4" customFormat="1" ht="71.25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:17" s="4" customFormat="1" ht="70" hidden="1" x14ac:dyDescent="0.35">
       <c r="A5" s="5">
         <v>3</v>
       </c>
@@ -5396,7 +5407,7 @@
         <v>35</v>
       </c>
       <c r="N5" s="32" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="O5" s="32"/>
       <c r="P5" s="32"/>
@@ -5404,7 +5415,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="6" spans="1:17" s="4" customFormat="1" ht="57" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:17" s="4" customFormat="1" ht="56" hidden="1" x14ac:dyDescent="0.35">
       <c r="A6" s="5">
         <v>4</v>
       </c>
@@ -5445,7 +5456,7 @@
         <v>30</v>
       </c>
       <c r="N6" s="32" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="O6" s="32"/>
       <c r="P6" s="32"/>
@@ -5453,7 +5464,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="7" spans="1:17" s="1" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:17" s="1" customFormat="1" ht="42" hidden="1" x14ac:dyDescent="0.3">
       <c r="A7" s="5">
         <v>5</v>
       </c>
@@ -5494,13 +5505,13 @@
         <v>0</v>
       </c>
       <c r="N7" s="32" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="O7" s="32"/>
       <c r="P7" s="32"/>
       <c r="Q7" s="22"/>
     </row>
-    <row r="8" spans="1:17" s="1" customFormat="1" ht="57" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:17" s="1" customFormat="1" ht="56" hidden="1" x14ac:dyDescent="0.3">
       <c r="A8" s="5">
         <v>6</v>
       </c>
@@ -5541,13 +5552,13 @@
         <v>36</v>
       </c>
       <c r="N8" s="32" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="O8" s="32"/>
       <c r="P8" s="32"/>
       <c r="Q8" s="22"/>
     </row>
-    <row r="9" spans="1:17" s="1" customFormat="1" ht="213.75" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:17" s="1" customFormat="1" ht="210" hidden="1" x14ac:dyDescent="0.3">
       <c r="A9" s="5">
         <v>7</v>
       </c>
@@ -5593,7 +5604,7 @@
       <c r="P9" s="32"/>
       <c r="Q9" s="22"/>
     </row>
-    <row r="10" spans="1:17" s="1" customFormat="1" ht="71.25" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:17" s="1" customFormat="1" ht="56" hidden="1" x14ac:dyDescent="0.3">
       <c r="A10" s="5">
         <v>8</v>
       </c>
@@ -5634,7 +5645,7 @@
         <v>20</v>
       </c>
       <c r="N10" s="32" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="O10" s="32"/>
       <c r="P10" s="32"/>
@@ -5642,7 +5653,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="11" spans="1:17" s="1" customFormat="1" ht="120" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:17" s="1" customFormat="1" ht="120" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="5">
         <v>9</v>
       </c>
@@ -5659,7 +5670,7 @@
         <v>31</v>
       </c>
       <c r="F11" s="54" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="G11" s="15" t="s">
         <v>45</v>
@@ -5686,16 +5697,16 @@
         <v>36</v>
       </c>
       <c r="O11" s="63" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="P11" s="32" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="Q11" s="22" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17" s="1" customFormat="1" ht="126.6" customHeight="1" x14ac:dyDescent="0.2">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" s="1" customFormat="1" ht="126.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="5">
         <v>10</v>
       </c>
@@ -5712,7 +5723,7 @@
         <v>31</v>
       </c>
       <c r="F12" s="54" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="G12" s="15" t="s">
         <v>45</v>
@@ -5739,16 +5750,16 @@
         <v>54</v>
       </c>
       <c r="O12" s="63" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="P12" s="32" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="Q12" s="22" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17" s="4" customFormat="1" ht="171" x14ac:dyDescent="0.25">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" s="4" customFormat="1" ht="154" x14ac:dyDescent="0.35">
       <c r="A13" s="5">
         <v>11</v>
       </c>
@@ -5765,13 +5776,13 @@
         <v>31</v>
       </c>
       <c r="F13" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G13" s="15" t="s">
         <v>45</v>
       </c>
       <c r="H13" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="I13" s="20">
         <v>1</v>
@@ -5786,22 +5797,22 @@
         <v>43419</v>
       </c>
       <c r="M13" s="53" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="N13" s="43">
         <v>72</v>
       </c>
       <c r="O13" s="63" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="P13" s="32" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="Q13" s="22" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17" s="1" customFormat="1" ht="114" x14ac:dyDescent="0.2">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" s="1" customFormat="1" ht="98" x14ac:dyDescent="0.3">
       <c r="A14" s="5">
         <v>12</v>
       </c>
@@ -5818,13 +5829,13 @@
         <v>31</v>
       </c>
       <c r="F14" s="44" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G14" s="15" t="s">
         <v>45</v>
       </c>
       <c r="H14" s="25" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="I14" s="25">
         <v>1</v>
@@ -5845,16 +5856,16 @@
         <v>0</v>
       </c>
       <c r="O14" s="64" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="P14" s="32" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="Q14" s="22" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17" s="4" customFormat="1" ht="114" x14ac:dyDescent="0.25">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" s="4" customFormat="1" ht="98" x14ac:dyDescent="0.35">
       <c r="A15" s="5">
         <v>13</v>
       </c>
@@ -5871,13 +5882,13 @@
         <v>31</v>
       </c>
       <c r="F15" s="20" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G15" s="15" t="s">
         <v>45</v>
       </c>
       <c r="H15" s="34" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="I15" s="34">
         <v>1</v>
@@ -5895,40 +5906,40 @@
         <v>10</v>
       </c>
       <c r="N15" s="57" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="O15" s="65" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="P15" s="57" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="Q15" s="58" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17" s="1" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" s="1" customFormat="1" ht="42" hidden="1" x14ac:dyDescent="0.3">
       <c r="A16" s="5">
         <v>14</v>
       </c>
       <c r="B16" s="6"/>
       <c r="C16" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="D16" s="34" t="s">
         <v>60</v>
-      </c>
-      <c r="D16" s="34" t="s">
-        <v>61</v>
       </c>
       <c r="E16" s="34" t="s">
         <v>31</v>
       </c>
       <c r="F16" s="47" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G16" s="15" t="s">
         <v>45</v>
       </c>
       <c r="H16" s="34" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="I16" s="34">
         <v>1</v>
@@ -5948,28 +5959,28 @@
       <c r="P16" s="32"/>
       <c r="Q16" s="22"/>
     </row>
-    <row r="17" spans="1:17" s="4" customFormat="1" ht="42.75" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:17" s="4" customFormat="1" ht="42" hidden="1" x14ac:dyDescent="0.35">
       <c r="A17" s="5">
         <v>15</v>
       </c>
       <c r="B17" s="6"/>
       <c r="C17" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="D17" s="34" t="s">
         <v>60</v>
-      </c>
-      <c r="D17" s="34" t="s">
-        <v>61</v>
       </c>
       <c r="E17" s="34" t="s">
         <v>31</v>
       </c>
       <c r="F17" s="44" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G17" s="15" t="s">
         <v>45</v>
       </c>
       <c r="H17" s="34" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="I17" s="34">
         <v>1</v>
@@ -5989,7 +6000,7 @@
       <c r="P17" s="32"/>
       <c r="Q17" s="22"/>
     </row>
-    <row r="18" spans="1:17" ht="99.75" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:17" ht="84" hidden="1" x14ac:dyDescent="0.35">
       <c r="A18" s="5">
         <v>16</v>
       </c>
@@ -5997,7 +6008,7 @@
         <v>43402</v>
       </c>
       <c r="C18" s="13" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D18" s="34" t="s">
         <v>15</v>
@@ -6006,13 +6017,13 @@
         <v>31</v>
       </c>
       <c r="F18" s="20" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G18" s="15" t="s">
         <v>45</v>
       </c>
       <c r="H18" s="34" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="I18" s="34">
         <v>1</v>
@@ -6030,15 +6041,15 @@
         <v>10</v>
       </c>
       <c r="N18" s="32" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="O18" s="32"/>
       <c r="P18" s="32"/>
       <c r="Q18" s="22" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17" ht="99.75" x14ac:dyDescent="0.25">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" ht="84" hidden="1" x14ac:dyDescent="0.35">
       <c r="A19" s="5">
         <v>17</v>
       </c>
@@ -6046,7 +6057,7 @@
         <v>43402</v>
       </c>
       <c r="C19" s="13" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D19" s="34" t="s">
         <v>15</v>
@@ -6055,13 +6066,13 @@
         <v>31</v>
       </c>
       <c r="F19" s="20" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G19" s="15" t="s">
         <v>45</v>
       </c>
       <c r="H19" s="34" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="I19" s="34">
         <v>1</v>
@@ -6079,15 +6090,15 @@
         <v>5</v>
       </c>
       <c r="N19" s="32" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="O19" s="32"/>
       <c r="P19" s="32"/>
       <c r="Q19" s="22" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" ht="99.75" x14ac:dyDescent="0.25">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" ht="84" x14ac:dyDescent="0.35">
       <c r="A20" s="5">
         <v>18</v>
       </c>
@@ -6095,7 +6106,7 @@
         <v>43402</v>
       </c>
       <c r="C20" s="13" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D20" s="34" t="s">
         <v>47</v>
@@ -6104,13 +6115,13 @@
         <v>31</v>
       </c>
       <c r="F20" s="20" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G20" s="15" t="s">
         <v>45</v>
       </c>
       <c r="H20" s="15" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="I20" s="15">
         <v>1</v>
@@ -6131,16 +6142,16 @@
         <v>30</v>
       </c>
       <c r="O20" s="65" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="P20" s="32" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="Q20" s="22" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" ht="85.5" x14ac:dyDescent="0.25">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" ht="84" hidden="1" x14ac:dyDescent="0.35">
       <c r="A21" s="5">
         <v>19</v>
       </c>
@@ -6148,22 +6159,22 @@
         <v>43402</v>
       </c>
       <c r="C21" s="13" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D21" s="34" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E21" s="34" t="s">
         <v>31</v>
       </c>
       <c r="F21" s="48" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G21" s="15" t="s">
         <v>45</v>
       </c>
       <c r="H21" s="34" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="I21" s="34">
         <v>1</v>
@@ -6183,7 +6194,7 @@
       <c r="P21" s="32"/>
       <c r="Q21" s="22"/>
     </row>
-    <row r="22" spans="1:17" ht="99.75" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:17" ht="84" hidden="1" x14ac:dyDescent="0.35">
       <c r="A22" s="5">
         <v>20</v>
       </c>
@@ -6191,22 +6202,22 @@
         <v>43402</v>
       </c>
       <c r="C22" s="13" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D22" s="34" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E22" s="34" t="s">
         <v>31</v>
       </c>
       <c r="F22" s="48" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G22" s="15" t="s">
         <v>45</v>
       </c>
       <c r="H22" s="25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="I22" s="25">
         <v>1</v>
@@ -6226,7 +6237,7 @@
       <c r="P22" s="32"/>
       <c r="Q22" s="22"/>
     </row>
-    <row r="23" spans="1:17" ht="99.75" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:17" ht="84" hidden="1" x14ac:dyDescent="0.35">
       <c r="A23" s="5">
         <v>21</v>
       </c>
@@ -6234,7 +6245,7 @@
         <v>43402</v>
       </c>
       <c r="C23" s="13" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D23" s="14" t="s">
         <v>15</v>
@@ -6243,13 +6254,13 @@
         <v>31</v>
       </c>
       <c r="F23" s="48" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G23" s="15" t="s">
         <v>45</v>
       </c>
       <c r="H23" s="34" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="I23" s="34">
         <v>1</v>
@@ -6267,15 +6278,15 @@
         <v>10</v>
       </c>
       <c r="N23" s="32" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="O23" s="32"/>
       <c r="P23" s="32"/>
       <c r="Q23" s="22" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17" ht="85.5" x14ac:dyDescent="0.25">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17" ht="84" hidden="1" x14ac:dyDescent="0.35">
       <c r="A24" s="5">
         <v>22</v>
       </c>
@@ -6283,7 +6294,7 @@
         <v>43418</v>
       </c>
       <c r="C24" s="13" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D24" s="14" t="s">
         <v>15</v>
@@ -6292,13 +6303,13 @@
         <v>31</v>
       </c>
       <c r="F24" s="48" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G24" s="15" t="s">
         <v>45</v>
       </c>
       <c r="H24" s="34" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="I24" s="15">
         <v>1</v>
@@ -6316,15 +6327,15 @@
         <v>5</v>
       </c>
       <c r="N24" s="32" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="O24" s="32"/>
       <c r="P24" s="32"/>
       <c r="Q24" s="24" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" ht="85.5" x14ac:dyDescent="0.25">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" ht="84" hidden="1" x14ac:dyDescent="0.35">
       <c r="A25" s="5">
         <v>23</v>
       </c>
@@ -6332,22 +6343,22 @@
         <v>43418</v>
       </c>
       <c r="C25" s="13" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D25" s="34" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E25" s="34" t="s">
         <v>31</v>
       </c>
       <c r="F25" s="44" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G25" s="15" t="s">
         <v>45</v>
       </c>
       <c r="H25" s="34" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="I25" s="15">
         <v>1</v>
@@ -6367,7 +6378,7 @@
       <c r="P25" s="32"/>
       <c r="Q25" s="22"/>
     </row>
-    <row r="26" spans="1:17" ht="42.75" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:17" ht="42" hidden="1" x14ac:dyDescent="0.35">
       <c r="A26" s="5">
         <v>24</v>
       </c>
@@ -6375,31 +6386,31 @@
         <v>43418</v>
       </c>
       <c r="C26" s="13" t="s">
+        <v>82</v>
+      </c>
+      <c r="D26" s="14" t="s">
         <v>83</v>
-      </c>
-      <c r="D26" s="14" t="s">
-        <v>84</v>
       </c>
       <c r="E26" s="34" t="s">
         <v>31</v>
       </c>
       <c r="F26" s="49" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G26" s="15" t="s">
         <v>45</v>
       </c>
       <c r="H26" s="34" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="I26" s="15">
         <v>1</v>
       </c>
       <c r="J26" s="15" t="s">
+        <v>85</v>
+      </c>
+      <c r="K26" s="15" t="s">
         <v>86</v>
-      </c>
-      <c r="K26" s="15" t="s">
-        <v>87</v>
       </c>
       <c r="L26" s="22">
         <v>43419</v>
@@ -6408,13 +6419,13 @@
         <v>30</v>
       </c>
       <c r="N26" s="32" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="O26" s="32"/>
       <c r="P26" s="32"/>
       <c r="Q26" s="15"/>
     </row>
-    <row r="27" spans="1:17" ht="85.5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:17" ht="101.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A27" s="5">
         <v>25</v>
       </c>
@@ -6422,7 +6433,7 @@
         <v>43418</v>
       </c>
       <c r="C27" s="13" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D27" s="34" t="s">
         <v>47</v>
@@ -6431,22 +6442,22 @@
         <v>31</v>
       </c>
       <c r="F27" s="48" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G27" s="15" t="s">
         <v>45</v>
       </c>
       <c r="H27" s="34" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="I27" s="15">
         <v>1</v>
       </c>
       <c r="J27" s="15" t="s">
+        <v>85</v>
+      </c>
+      <c r="K27" s="15" t="s">
         <v>86</v>
-      </c>
-      <c r="K27" s="15" t="s">
-        <v>87</v>
       </c>
       <c r="L27" s="22">
         <v>43419</v>
@@ -6458,16 +6469,16 @@
         <v>30</v>
       </c>
       <c r="O27" s="66" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="P27" s="32" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="Q27" s="15" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="28" spans="1:17" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" ht="42" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A28" s="5">
         <v>26</v>
       </c>
@@ -6475,28 +6486,28 @@
         <v>43430</v>
       </c>
       <c r="C28" s="34" t="s">
+        <v>90</v>
+      </c>
+      <c r="D28" s="34" t="s">
         <v>91</v>
-      </c>
-      <c r="D28" s="34" t="s">
-        <v>92</v>
       </c>
       <c r="E28" s="34" t="s">
         <v>31</v>
       </c>
       <c r="F28" s="20" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="G28" s="15" t="s">
         <v>45</v>
       </c>
       <c r="H28" s="34" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="I28" s="34">
         <v>1</v>
       </c>
       <c r="J28" s="34" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="K28" s="34" t="s">
         <v>21</v>
@@ -6508,13 +6519,13 @@
         <v>6</v>
       </c>
       <c r="N28" s="32" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="O28" s="32"/>
       <c r="P28" s="32"/>
       <c r="Q28" s="34"/>
     </row>
-    <row r="29" spans="1:17" s="8" customFormat="1" ht="85.5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:17" s="8" customFormat="1" ht="84" hidden="1" x14ac:dyDescent="0.35">
       <c r="A29" s="5">
         <v>27</v>
       </c>
@@ -6522,7 +6533,7 @@
         <v>43430</v>
       </c>
       <c r="C29" s="34" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D29" s="34" t="s">
         <v>15</v>
@@ -6531,19 +6542,19 @@
         <v>31</v>
       </c>
       <c r="F29" s="48" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G29" s="15" t="s">
         <v>45</v>
       </c>
       <c r="H29" s="34" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="I29" s="34">
         <v>1</v>
       </c>
       <c r="J29" s="34" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="K29" s="34" t="s">
         <v>21</v>
@@ -6555,15 +6566,15 @@
         <v>10</v>
       </c>
       <c r="N29" s="32" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="O29" s="32"/>
       <c r="P29" s="32"/>
       <c r="Q29" s="34" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="30" spans="1:17" s="8" customFormat="1" ht="42.75" x14ac:dyDescent="0.25">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17" s="8" customFormat="1" ht="42" hidden="1" x14ac:dyDescent="0.35">
       <c r="A30" s="5">
         <v>28</v>
       </c>
@@ -6571,7 +6582,7 @@
         <v>43430</v>
       </c>
       <c r="C30" s="34" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D30" s="34" t="s">
         <v>15</v>
@@ -6580,19 +6591,19 @@
         <v>31</v>
       </c>
       <c r="F30" s="48" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G30" s="15" t="s">
         <v>45</v>
       </c>
       <c r="H30" s="34" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="I30" s="34">
         <v>1</v>
       </c>
       <c r="J30" s="34" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="K30" s="34" t="s">
         <v>21</v>
@@ -6604,15 +6615,15 @@
         <v>15</v>
       </c>
       <c r="N30" s="32" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="O30" s="32"/>
       <c r="P30" s="32"/>
       <c r="Q30" s="34" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="31" spans="1:17" ht="42.75" x14ac:dyDescent="0.25">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17" ht="42" hidden="1" x14ac:dyDescent="0.35">
       <c r="A31" s="5">
         <v>29</v>
       </c>
@@ -6620,7 +6631,7 @@
         <v>43430</v>
       </c>
       <c r="C31" s="34" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D31" s="34" t="s">
         <v>15</v>
@@ -6629,19 +6640,19 @@
         <v>31</v>
       </c>
       <c r="F31" s="50" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G31" s="15" t="s">
         <v>45</v>
       </c>
       <c r="H31" s="34" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="I31" s="34">
         <v>1</v>
       </c>
       <c r="J31" s="34" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="K31" s="34" t="s">
         <v>21</v>
@@ -6653,13 +6664,13 @@
         <v>1</v>
       </c>
       <c r="N31" s="32" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="O31" s="32"/>
       <c r="P31" s="32"/>
       <c r="Q31" s="15"/>
     </row>
-    <row r="32" spans="1:17" ht="128.25" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:17" ht="126" hidden="1" x14ac:dyDescent="0.35">
       <c r="A32" s="5">
         <v>30</v>
       </c>
@@ -6667,7 +6678,7 @@
         <v>43430</v>
       </c>
       <c r="C32" s="34" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D32" s="34" t="s">
         <v>38</v>
@@ -6676,19 +6687,19 @@
         <v>31</v>
       </c>
       <c r="F32" s="51" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="G32" s="15" t="s">
         <v>45</v>
       </c>
       <c r="H32" s="30" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="I32" s="16">
         <v>1</v>
       </c>
       <c r="J32" s="34" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="K32" s="34" t="s">
         <v>21</v>
@@ -6700,15 +6711,15 @@
         <v>0</v>
       </c>
       <c r="N32" s="32" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="O32" s="32"/>
       <c r="P32" s="32"/>
       <c r="Q32" s="34" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="33" spans="1:17" ht="71.25" x14ac:dyDescent="0.25">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17" ht="70" hidden="1" x14ac:dyDescent="0.35">
       <c r="A33" s="5">
         <v>31</v>
       </c>
@@ -6716,7 +6727,7 @@
         <v>43430</v>
       </c>
       <c r="C33" s="34" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D33" s="34" t="s">
         <v>38</v>
@@ -6725,19 +6736,19 @@
         <v>31</v>
       </c>
       <c r="F33" s="48" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="G33" s="15" t="s">
         <v>45</v>
       </c>
       <c r="H33" s="34" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="I33" s="16">
         <v>1</v>
       </c>
       <c r="J33" s="34" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="K33" s="34" t="s">
         <v>21</v>
@@ -6749,15 +6760,15 @@
         <v>10</v>
       </c>
       <c r="N33" s="32" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="O33" s="32"/>
       <c r="P33" s="32"/>
       <c r="Q33" s="34" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="34" spans="1:17" ht="142.5" x14ac:dyDescent="0.25">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17" ht="140" hidden="1" x14ac:dyDescent="0.35">
       <c r="A34" s="5">
         <v>32</v>
       </c>
@@ -6765,7 +6776,7 @@
         <v>43430</v>
       </c>
       <c r="C34" s="34" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D34" s="34" t="s">
         <v>38</v>
@@ -6774,19 +6785,19 @@
         <v>31</v>
       </c>
       <c r="F34" s="48" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="G34" s="15" t="s">
         <v>45</v>
       </c>
       <c r="H34" s="34" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="I34" s="34">
         <v>1</v>
       </c>
       <c r="J34" s="34" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="K34" s="34" t="s">
         <v>21</v>
@@ -6798,15 +6809,15 @@
         <v>0</v>
       </c>
       <c r="N34" s="32" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="O34" s="32"/>
       <c r="P34" s="32"/>
       <c r="Q34" s="34" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="35" spans="1:17" ht="71.25" x14ac:dyDescent="0.25">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="35" spans="1:17" ht="70" hidden="1" x14ac:dyDescent="0.35">
       <c r="A35" s="5">
         <v>33</v>
       </c>
@@ -6814,7 +6825,7 @@
         <v>43430</v>
       </c>
       <c r="C35" s="34" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D35" s="34" t="s">
         <v>38</v>
@@ -6823,19 +6834,19 @@
         <v>31</v>
       </c>
       <c r="F35" s="48" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="G35" s="15" t="s">
         <v>45</v>
       </c>
       <c r="H35" s="34" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="I35" s="34">
         <v>1</v>
       </c>
       <c r="J35" s="34" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="K35" s="34" t="s">
         <v>21</v>
@@ -6847,15 +6858,15 @@
         <v>0</v>
       </c>
       <c r="N35" s="32" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="O35" s="32"/>
       <c r="P35" s="32"/>
       <c r="Q35" s="34" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="36" spans="1:17" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="36" spans="1:17" ht="36" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A36" s="5">
         <v>34</v>
       </c>
@@ -6863,28 +6874,28 @@
         <v>43430</v>
       </c>
       <c r="C36" s="15" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D36" s="34" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E36" s="34" t="s">
         <v>39</v>
       </c>
       <c r="F36" s="20" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="G36" s="15" t="s">
         <v>45</v>
       </c>
       <c r="H36" s="34" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="I36" s="34">
         <v>2</v>
       </c>
       <c r="J36" s="34" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="K36" s="34" t="s">
         <v>21</v>
@@ -6898,7 +6909,7 @@
       <c r="P36" s="32"/>
       <c r="Q36" s="34"/>
     </row>
-    <row r="37" spans="1:17" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:17" ht="28" hidden="1" x14ac:dyDescent="0.35">
       <c r="A37" s="5">
         <v>35</v>
       </c>
@@ -6906,7 +6917,7 @@
         <v>43430</v>
       </c>
       <c r="C37" s="15" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D37" s="34" t="s">
         <v>15</v>
@@ -6915,19 +6926,19 @@
         <v>39</v>
       </c>
       <c r="F37" s="20" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G37" s="15" t="s">
         <v>45</v>
       </c>
       <c r="H37" s="34" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="I37" s="34">
         <v>2</v>
       </c>
       <c r="J37" s="34" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="K37" s="34" t="s">
         <v>21</v>
@@ -6944,7 +6955,7 @@
       <c r="P37" s="32"/>
       <c r="Q37" s="34"/>
     </row>
-    <row r="38" spans="1:17" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:17" ht="28" hidden="1" x14ac:dyDescent="0.35">
       <c r="A38" s="5">
         <v>36</v>
       </c>
@@ -6952,7 +6963,7 @@
         <v>43427</v>
       </c>
       <c r="C38" s="15" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D38" s="34" t="s">
         <v>15</v>
@@ -6961,19 +6972,19 @@
         <v>39</v>
       </c>
       <c r="F38" s="20" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G38" s="15" t="s">
         <v>45</v>
       </c>
       <c r="H38" s="34" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="I38" s="34" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="J38" s="34" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="K38" s="34" t="s">
         <v>21</v>
@@ -6992,7 +7003,7 @@
       <c r="P38" s="32"/>
       <c r="Q38" s="34"/>
     </row>
-    <row r="39" spans="1:17" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:17" ht="28" hidden="1" x14ac:dyDescent="0.35">
       <c r="A39" s="5">
         <v>37</v>
       </c>
@@ -7000,7 +7011,7 @@
         <v>43427</v>
       </c>
       <c r="C39" s="15" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D39" s="34" t="s">
         <v>15</v>
@@ -7009,19 +7020,19 @@
         <v>39</v>
       </c>
       <c r="F39" s="20" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="G39" s="15" t="s">
         <v>45</v>
       </c>
       <c r="H39" s="34" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="I39" s="34">
         <v>2</v>
       </c>
       <c r="J39" s="34" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="K39" s="34" t="s">
         <v>21</v>
@@ -7038,7 +7049,7 @@
       <c r="P39" s="32"/>
       <c r="Q39" s="34"/>
     </row>
-    <row r="40" spans="1:17" ht="256.5" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:17" ht="252" x14ac:dyDescent="0.35">
       <c r="A40" s="5">
         <v>38</v>
       </c>
@@ -7046,7 +7057,7 @@
         <v>43427</v>
       </c>
       <c r="C40" s="15" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D40" s="34" t="s">
         <v>47</v>
@@ -7055,19 +7066,19 @@
         <v>31</v>
       </c>
       <c r="F40" s="20" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="G40" s="15" t="s">
         <v>45</v>
       </c>
       <c r="H40" s="34" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="I40" s="34" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="J40" s="34" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="K40" s="34" t="s">
         <v>21</v>
@@ -7082,14 +7093,14 @@
         <v>90</v>
       </c>
       <c r="O40" s="62" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="P40" s="32"/>
       <c r="Q40" s="34" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="41" spans="1:17" ht="99.75" x14ac:dyDescent="0.25">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="41" spans="1:17" ht="98" x14ac:dyDescent="0.35">
       <c r="A41" s="5">
         <v>40</v>
       </c>
@@ -7097,7 +7108,7 @@
         <v>43427</v>
       </c>
       <c r="C41" s="15" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D41" s="34" t="s">
         <v>47</v>
@@ -7106,19 +7117,19 @@
         <v>39</v>
       </c>
       <c r="F41" s="20" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="G41" s="15" t="s">
         <v>45</v>
       </c>
       <c r="H41" s="34" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="I41" s="34">
         <v>2</v>
       </c>
       <c r="J41" s="34" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="K41" s="34" t="s">
         <v>21</v>
@@ -7133,10 +7144,10 @@
       <c r="O41" s="32"/>
       <c r="P41" s="32"/>
       <c r="Q41" s="34" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="42" spans="1:17" ht="57" x14ac:dyDescent="0.25">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="42" spans="1:17" ht="83.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A42" s="5">
         <v>41</v>
       </c>
@@ -7144,7 +7155,7 @@
         <v>43427</v>
       </c>
       <c r="C42" s="15" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D42" s="34" t="s">
         <v>47</v>
@@ -7153,19 +7164,19 @@
         <v>31</v>
       </c>
       <c r="F42" s="20" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="G42" s="15" t="s">
         <v>45</v>
       </c>
       <c r="H42" s="34" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="I42" s="34">
         <v>1</v>
       </c>
       <c r="J42" s="34" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="K42" s="34" t="s">
         <v>21</v>
@@ -7174,22 +7185,22 @@
         <v>43440</v>
       </c>
       <c r="M42" s="33">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="N42" s="32" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="O42" s="66" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="P42" s="32" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="Q42" s="34" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="43" spans="1:17" ht="135" x14ac:dyDescent="0.25">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="43" spans="1:17" ht="126" x14ac:dyDescent="0.35">
       <c r="A43" s="5">
         <v>42</v>
       </c>
@@ -7197,7 +7208,7 @@
         <v>43427</v>
       </c>
       <c r="C43" s="15" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D43" s="34" t="s">
         <v>47</v>
@@ -7206,19 +7217,19 @@
         <v>31</v>
       </c>
       <c r="F43" s="20" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="G43" s="15" t="s">
         <v>45</v>
       </c>
       <c r="H43" s="34" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="I43" s="34">
         <v>1</v>
       </c>
       <c r="J43" s="34" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="K43" s="34" t="s">
         <v>21</v>
@@ -7233,16 +7244,16 @@
         <v>30</v>
       </c>
       <c r="O43" s="64" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="P43" s="32" t="s">
-        <v>185</v>
-      </c>
-      <c r="Q43" s="67" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="44" spans="1:17" ht="57" x14ac:dyDescent="0.25">
+        <v>183</v>
+      </c>
+      <c r="Q43" s="34" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="44" spans="1:17" ht="56" x14ac:dyDescent="0.35">
       <c r="A44" s="5">
         <v>45</v>
       </c>
@@ -7250,7 +7261,7 @@
         <v>43427</v>
       </c>
       <c r="C44" s="15" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D44" s="34" t="s">
         <v>47</v>
@@ -7259,22 +7270,22 @@
         <v>31</v>
       </c>
       <c r="F44" s="20" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="G44" s="15" t="s">
         <v>45</v>
       </c>
       <c r="H44" s="34" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="I44" s="34">
         <v>2</v>
       </c>
       <c r="J44" s="34" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="K44" s="34" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="L44" s="22">
         <v>43452</v>
@@ -7285,7 +7296,7 @@
       <c r="P44" s="32"/>
       <c r="Q44" s="34"/>
     </row>
-    <row r="45" spans="1:17" ht="71.25" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:17" ht="70" x14ac:dyDescent="0.35">
       <c r="A45" s="5">
         <v>46</v>
       </c>
@@ -7293,7 +7304,7 @@
         <v>43427</v>
       </c>
       <c r="C45" s="15" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D45" s="34" t="s">
         <v>47</v>
@@ -7302,19 +7313,19 @@
         <v>31</v>
       </c>
       <c r="F45" s="20" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="G45" s="15" t="s">
         <v>45</v>
       </c>
       <c r="H45" s="34" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="I45" s="34">
         <v>1</v>
       </c>
       <c r="J45" s="34" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="K45" s="34" t="s">
         <v>21</v>
@@ -7328,17 +7339,17 @@
       <c r="N45" s="60">
         <v>8</v>
       </c>
-      <c r="O45" s="68" t="s">
-        <v>218</v>
+      <c r="O45" s="67" t="s">
+        <v>215</v>
       </c>
       <c r="P45" s="57" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="Q45" s="20" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="46" spans="1:17" ht="57" x14ac:dyDescent="0.25">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="46" spans="1:17" ht="56" hidden="1" x14ac:dyDescent="0.35">
       <c r="A46" s="5">
         <v>47</v>
       </c>
@@ -7346,7 +7357,7 @@
         <v>43427</v>
       </c>
       <c r="C46" s="15" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D46" s="34" t="s">
         <v>38</v>
@@ -7355,19 +7366,19 @@
         <v>31</v>
       </c>
       <c r="F46" s="20" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="G46" s="15" t="s">
         <v>45</v>
       </c>
       <c r="H46" s="20" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="I46" s="34">
         <v>1</v>
       </c>
       <c r="J46" s="34" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="K46" s="34" t="s">
         <v>21</v>
@@ -7379,15 +7390,15 @@
         <v>0</v>
       </c>
       <c r="N46" s="32" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="O46" s="32"/>
       <c r="P46" s="32"/>
       <c r="Q46" s="34" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="47" spans="1:17" ht="42.75" x14ac:dyDescent="0.25">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="47" spans="1:17" ht="42" hidden="1" x14ac:dyDescent="0.35">
       <c r="A47" s="5">
         <v>48</v>
       </c>
@@ -7395,7 +7406,7 @@
         <v>43427</v>
       </c>
       <c r="C47" s="15" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D47" s="34" t="s">
         <v>15</v>
@@ -7404,19 +7415,19 @@
         <v>39</v>
       </c>
       <c r="F47" s="20" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="G47" s="15" t="s">
         <v>45</v>
       </c>
       <c r="H47" s="34" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="I47" s="34">
         <v>2</v>
       </c>
       <c r="J47" s="34" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="K47" s="34" t="s">
         <v>21</v>
@@ -7433,7 +7444,7 @@
       <c r="P47" s="32"/>
       <c r="Q47" s="34"/>
     </row>
-    <row r="48" spans="1:17" ht="156.75" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:17" ht="140" hidden="1" x14ac:dyDescent="0.35">
       <c r="A48" s="5">
         <v>49</v>
       </c>
@@ -7441,28 +7452,28 @@
         <v>43427</v>
       </c>
       <c r="C48" s="15" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D48" s="34" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E48" s="34" t="s">
         <v>31</v>
       </c>
       <c r="F48" s="20" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="G48" s="15" t="s">
         <v>45</v>
       </c>
       <c r="H48" s="34" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="I48" s="34">
         <v>1</v>
       </c>
       <c r="J48" s="34" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="K48" s="34" t="s">
         <v>21</v>
@@ -7476,7 +7487,7 @@
       <c r="P48" s="32"/>
       <c r="Q48" s="34"/>
     </row>
-    <row r="49" spans="1:17" ht="42.75" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:17" ht="42" hidden="1" x14ac:dyDescent="0.35">
       <c r="A49" s="5">
         <v>50</v>
       </c>
@@ -7484,7 +7495,7 @@
         <v>43427</v>
       </c>
       <c r="C49" s="15" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D49" s="34" t="s">
         <v>15</v>
@@ -7493,19 +7504,19 @@
         <v>31</v>
       </c>
       <c r="F49" s="20" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="G49" s="15" t="s">
         <v>45</v>
       </c>
       <c r="H49" s="34" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="I49" s="34">
         <v>1</v>
       </c>
       <c r="J49" s="34" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="K49" s="34" t="s">
         <v>21</v>
@@ -7522,10 +7533,10 @@
       <c r="O49" s="32"/>
       <c r="P49" s="32"/>
       <c r="Q49" s="34" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="50" spans="1:17" ht="42.75" x14ac:dyDescent="0.25">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="50" spans="1:17" ht="42" hidden="1" x14ac:dyDescent="0.35">
       <c r="A50" s="5">
         <v>51</v>
       </c>
@@ -7533,28 +7544,28 @@
         <v>43427</v>
       </c>
       <c r="C50" s="15" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D50" s="34" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E50" s="34" t="s">
         <v>31</v>
       </c>
       <c r="F50" s="20" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="G50" s="15" t="s">
         <v>45</v>
       </c>
       <c r="H50" s="34" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="I50" s="34">
         <v>1</v>
       </c>
       <c r="J50" s="34" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="K50" s="34" t="s">
         <v>21</v>
@@ -7568,7 +7579,7 @@
       <c r="P50" s="32"/>
       <c r="Q50" s="34"/>
     </row>
-    <row r="51" spans="1:17" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:17" ht="28" hidden="1" x14ac:dyDescent="0.35">
       <c r="A51" s="5">
         <v>52</v>
       </c>
@@ -7576,7 +7587,7 @@
         <v>43427</v>
       </c>
       <c r="C51" s="15" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D51" s="34" t="s">
         <v>15</v>
@@ -7585,19 +7596,19 @@
         <v>39</v>
       </c>
       <c r="F51" s="20" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="G51" s="15" t="s">
         <v>45</v>
       </c>
       <c r="H51" s="34" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="I51" s="34">
         <v>2</v>
       </c>
       <c r="J51" s="34" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="K51" s="34" t="s">
         <v>21</v>
@@ -7614,7 +7625,7 @@
       <c r="P51" s="32"/>
       <c r="Q51" s="34"/>
     </row>
-    <row r="52" spans="1:17" ht="42.75" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:17" ht="42" hidden="1" x14ac:dyDescent="0.35">
       <c r="A52" s="5">
         <v>53</v>
       </c>
@@ -7622,7 +7633,7 @@
         <v>43427</v>
       </c>
       <c r="C52" s="15" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D52" s="34" t="s">
         <v>15</v>
@@ -7631,19 +7642,19 @@
         <v>31</v>
       </c>
       <c r="F52" s="20" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="G52" s="15" t="s">
         <v>45</v>
       </c>
       <c r="H52" s="34" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="I52" s="34">
         <v>1</v>
       </c>
       <c r="J52" s="34" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="K52" s="34" t="s">
         <v>21</v>
@@ -7655,15 +7666,15 @@
         <v>20</v>
       </c>
       <c r="N52" s="32" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="O52" s="32"/>
       <c r="P52" s="32"/>
       <c r="Q52" s="34" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="53" spans="1:17" ht="85.5" x14ac:dyDescent="0.25">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="53" spans="1:17" ht="84" hidden="1" x14ac:dyDescent="0.35">
       <c r="A53" s="5">
         <v>54</v>
       </c>
@@ -7671,7 +7682,7 @@
         <v>43427</v>
       </c>
       <c r="C53" s="15" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D53" s="34" t="s">
         <v>15</v>
@@ -7680,19 +7691,19 @@
         <v>31</v>
       </c>
       <c r="F53" s="20" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="G53" s="15" t="s">
         <v>45</v>
       </c>
       <c r="H53" s="34" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="I53" s="34">
         <v>1</v>
       </c>
       <c r="J53" s="34" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="K53" s="34" t="s">
         <v>21</v>
@@ -7704,15 +7715,15 @@
         <v>40</v>
       </c>
       <c r="N53" s="32" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="O53" s="32"/>
       <c r="P53" s="32"/>
       <c r="Q53" s="34" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="54" spans="1:17" ht="42.75" x14ac:dyDescent="0.25">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="54" spans="1:17" ht="42" hidden="1" x14ac:dyDescent="0.35">
       <c r="A54" s="5">
         <v>55</v>
       </c>
@@ -7720,7 +7731,7 @@
         <v>43427</v>
       </c>
       <c r="C54" s="15" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D54" s="34" t="s">
         <v>15</v>
@@ -7729,19 +7740,19 @@
         <v>39</v>
       </c>
       <c r="F54" s="20" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="G54" s="15" t="s">
         <v>45</v>
       </c>
       <c r="H54" s="34" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="I54" s="34">
         <v>2</v>
       </c>
       <c r="J54" s="34" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="K54" s="34" t="s">
         <v>21</v>
@@ -7758,7 +7769,7 @@
       <c r="P54" s="32"/>
       <c r="Q54" s="34"/>
     </row>
-    <row r="55" spans="1:17" ht="57" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:17" ht="56" hidden="1" x14ac:dyDescent="0.35">
       <c r="A55" s="5">
         <v>56</v>
       </c>
@@ -7766,7 +7777,7 @@
         <v>43427</v>
       </c>
       <c r="C55" s="15" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D55" s="34" t="s">
         <v>15</v>
@@ -7775,19 +7786,19 @@
         <v>39</v>
       </c>
       <c r="F55" s="20" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="G55" s="15" t="s">
         <v>45</v>
       </c>
       <c r="H55" s="34" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="I55" s="34">
         <v>2</v>
       </c>
       <c r="J55" s="34" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="K55" s="34" t="s">
         <v>21</v>
@@ -7804,7 +7815,7 @@
       <c r="P55" s="32"/>
       <c r="Q55" s="34"/>
     </row>
-    <row r="56" spans="1:17" ht="71.25" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:17" ht="70" hidden="1" x14ac:dyDescent="0.35">
       <c r="A56" s="5">
         <v>57</v>
       </c>
@@ -7812,28 +7823,28 @@
         <v>43432</v>
       </c>
       <c r="C56" s="34" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="D56" s="34" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="E56" s="34" t="s">
         <v>31</v>
       </c>
       <c r="F56" s="20" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="G56" s="15" t="s">
         <v>45</v>
       </c>
       <c r="H56" s="34" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="I56" s="34">
         <v>1</v>
       </c>
       <c r="J56" s="34" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="K56" s="34" t="s">
         <v>21</v>
@@ -7845,13 +7856,13 @@
         <v>4</v>
       </c>
       <c r="N56" s="32" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="O56" s="32"/>
       <c r="P56" s="32"/>
       <c r="Q56" s="34"/>
     </row>
-    <row r="57" spans="1:17" ht="42.75" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:17" ht="42" hidden="1" x14ac:dyDescent="0.35">
       <c r="A57" s="5">
         <v>58</v>
       </c>
@@ -7859,7 +7870,7 @@
         <v>43432</v>
       </c>
       <c r="C57" s="15" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D57" s="34" t="s">
         <v>38</v>
@@ -7868,19 +7879,19 @@
         <v>31</v>
       </c>
       <c r="F57" s="20" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="G57" s="15" t="s">
         <v>45</v>
       </c>
       <c r="H57" s="34" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="I57" s="34">
         <v>1</v>
       </c>
       <c r="J57" s="34" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="K57" s="34" t="s">
         <v>21</v>
@@ -7897,10 +7908,10 @@
       <c r="O57" s="32"/>
       <c r="P57" s="32"/>
       <c r="Q57" s="34" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="58" spans="1:17" ht="99.75" x14ac:dyDescent="0.25">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="58" spans="1:17" ht="84" x14ac:dyDescent="0.35">
       <c r="A58" s="5">
         <v>59</v>
       </c>
@@ -7908,7 +7919,7 @@
         <v>43432</v>
       </c>
       <c r="C58" s="15" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D58" s="34" t="s">
         <v>47</v>
@@ -7917,19 +7928,19 @@
         <v>31</v>
       </c>
       <c r="F58" s="20" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="G58" s="15" t="s">
         <v>45</v>
       </c>
       <c r="H58" s="34" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="I58" s="34">
         <v>1</v>
       </c>
       <c r="J58" s="34" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="K58" s="34" t="s">
         <v>21</v>
@@ -7944,16 +7955,16 @@
         <v>30</v>
       </c>
       <c r="O58" s="66" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="P58" s="32" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="Q58" s="34" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="59" spans="1:17" ht="99.75" x14ac:dyDescent="0.25">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="59" spans="1:17" ht="84" hidden="1" x14ac:dyDescent="0.35">
       <c r="A59" s="5">
         <v>60</v>
       </c>
@@ -7961,28 +7972,28 @@
         <v>43432</v>
       </c>
       <c r="C59" s="34" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D59" s="34" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="E59" s="34" t="s">
         <v>39</v>
       </c>
       <c r="F59" s="20" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="G59" s="15" t="s">
         <v>45</v>
       </c>
       <c r="H59" s="34" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="I59" s="34">
         <v>2</v>
       </c>
       <c r="J59" s="34" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="K59" s="34" t="s">
         <v>21</v>
@@ -7996,7 +8007,7 @@
       <c r="P59" s="35"/>
       <c r="Q59" s="34"/>
     </row>
-    <row r="60" spans="1:17" ht="57" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:17" ht="56" hidden="1" x14ac:dyDescent="0.35">
       <c r="A60" s="5">
         <v>61</v>
       </c>
@@ -8004,28 +8015,28 @@
         <v>43432</v>
       </c>
       <c r="C60" s="34" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="D60" s="34" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="E60" s="34" t="s">
         <v>39</v>
       </c>
       <c r="F60" s="20" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="G60" s="15" t="s">
         <v>45</v>
       </c>
       <c r="H60" s="34" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="I60" s="34" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="J60" s="34" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="K60" s="34" t="s">
         <v>21</v>
@@ -8039,7 +8050,7 @@
       <c r="P60" s="35"/>
       <c r="Q60" s="34"/>
     </row>
-    <row r="61" spans="1:17" ht="171" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:17" ht="154" hidden="1" x14ac:dyDescent="0.35">
       <c r="A61" s="5">
         <v>62</v>
       </c>
@@ -8047,7 +8058,7 @@
         <v>43440</v>
       </c>
       <c r="C61" s="34" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="D61" s="34" t="s">
         <v>38</v>
@@ -8056,22 +8067,22 @@
         <v>31</v>
       </c>
       <c r="F61" s="20" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="G61" s="15" t="s">
         <v>45</v>
       </c>
       <c r="H61" s="34" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="I61" s="34">
         <v>1</v>
       </c>
       <c r="J61" s="34" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="K61" s="34" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="L61" s="22">
         <v>43452</v>
@@ -8085,10 +8096,10 @@
       <c r="O61" s="5"/>
       <c r="P61" s="5"/>
       <c r="Q61" s="34" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="62" spans="1:17" ht="99.75" x14ac:dyDescent="0.25">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="62" spans="1:17" ht="98" hidden="1" x14ac:dyDescent="0.35">
       <c r="A62" s="5">
         <v>63</v>
       </c>
@@ -8096,7 +8107,7 @@
         <v>43440</v>
       </c>
       <c r="C62" s="15" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="D62" s="34" t="s">
         <v>15</v>
@@ -8105,19 +8116,19 @@
         <v>31</v>
       </c>
       <c r="F62" s="20" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="G62" s="15" t="s">
         <v>45</v>
       </c>
       <c r="H62" s="34" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="I62" s="34" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="J62" s="34" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="K62" s="34" t="s">
         <v>21</v>
@@ -8134,10 +8145,10 @@
       <c r="O62" s="5"/>
       <c r="P62" s="5"/>
       <c r="Q62" s="34" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="63" spans="1:17" ht="99.75" x14ac:dyDescent="0.25">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="63" spans="1:17" ht="98" hidden="1" x14ac:dyDescent="0.35">
       <c r="A63" s="5">
         <v>64</v>
       </c>
@@ -8145,28 +8156,28 @@
         <v>43440</v>
       </c>
       <c r="C63" s="15" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="D63" s="34" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E63" s="34" t="s">
         <v>31</v>
       </c>
       <c r="F63" s="20" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="G63" s="15" t="s">
         <v>45</v>
       </c>
       <c r="H63" s="34" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="I63" s="34" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="J63" s="34" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="K63" s="34" t="s">
         <v>21</v>
@@ -8183,10 +8194,10 @@
       <c r="O63" s="5"/>
       <c r="P63" s="5"/>
       <c r="Q63" s="34" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="64" spans="1:17" ht="228" x14ac:dyDescent="0.25">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="64" spans="1:17" ht="210" hidden="1" x14ac:dyDescent="0.35">
       <c r="A64" s="5">
         <v>65</v>
       </c>
@@ -8194,7 +8205,7 @@
         <v>43446</v>
       </c>
       <c r="C64" s="34" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="D64" s="34" t="s">
         <v>15</v>
@@ -8203,19 +8214,19 @@
         <v>31</v>
       </c>
       <c r="F64" s="20" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="G64" s="15" t="s">
         <v>45</v>
       </c>
       <c r="H64" s="34" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="I64" s="34">
         <v>1</v>
       </c>
       <c r="J64" s="34" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="K64" s="34" t="s">
         <v>21</v>
@@ -8230,10 +8241,10 @@
       <c r="O64" s="5"/>
       <c r="P64" s="5"/>
       <c r="Q64" s="34" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="65" spans="1:19" ht="42.75" x14ac:dyDescent="0.25">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="65" spans="1:19" ht="42" hidden="1" x14ac:dyDescent="0.35">
       <c r="A65" s="5">
         <v>66</v>
       </c>
@@ -8241,7 +8252,7 @@
         <v>43446</v>
       </c>
       <c r="C65" s="34" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="D65" s="34" t="s">
         <v>15</v>
@@ -8250,19 +8261,19 @@
         <v>31</v>
       </c>
       <c r="F65" s="20" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="G65" s="15" t="s">
         <v>45</v>
       </c>
       <c r="H65" s="34" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="I65" s="34">
         <v>1</v>
       </c>
       <c r="J65" s="34" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="K65" s="34" t="s">
         <v>21</v>
@@ -8278,7 +8289,7 @@
       <c r="P65" s="5"/>
       <c r="Q65" s="34"/>
     </row>
-    <row r="66" spans="1:19" ht="106.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:19" ht="106.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A66" s="5">
         <v>67</v>
       </c>
@@ -8286,7 +8297,7 @@
         <v>43451</v>
       </c>
       <c r="C66" s="34" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D66" s="34" t="s">
         <v>15</v>
@@ -8295,19 +8306,19 @@
         <v>31</v>
       </c>
       <c r="F66" s="20" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="G66" s="15" t="s">
         <v>45</v>
       </c>
       <c r="H66" s="34" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="I66" s="34">
         <v>1</v>
       </c>
       <c r="J66" s="34" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="K66" s="34" t="s">
         <v>21</v>
@@ -8322,10 +8333,10 @@
       <c r="O66" s="5"/>
       <c r="P66" s="5"/>
       <c r="Q66" s="34" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="67" spans="1:19" ht="114" x14ac:dyDescent="0.25">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="67" spans="1:19" ht="112" hidden="1" x14ac:dyDescent="0.35">
       <c r="A67" s="5">
         <v>68</v>
       </c>
@@ -8333,28 +8344,28 @@
         <v>43451</v>
       </c>
       <c r="C67" s="34" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D67" s="34" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E67" s="34" t="s">
         <v>31</v>
       </c>
       <c r="F67" s="20" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="G67" s="15" t="s">
         <v>45</v>
       </c>
       <c r="H67" s="34" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="I67" s="34">
         <v>1</v>
       </c>
       <c r="J67" s="34" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="K67" s="34" t="s">
         <v>21</v>
@@ -8371,12 +8382,12 @@
       <c r="O67" s="5"/>
       <c r="P67" s="5"/>
       <c r="Q67" s="34" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="R67" s="5"/>
       <c r="S67" s="34"/>
     </row>
-    <row r="68" spans="1:19" ht="128.25" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:19" ht="112" hidden="1" x14ac:dyDescent="0.35">
       <c r="A68" s="5">
         <v>69</v>
       </c>
@@ -8384,7 +8395,7 @@
         <v>43451</v>
       </c>
       <c r="C68" s="34" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D68" s="34" t="s">
         <v>15</v>
@@ -8393,19 +8404,19 @@
         <v>31</v>
       </c>
       <c r="F68" s="20" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="G68" s="15" t="s">
         <v>45</v>
       </c>
       <c r="H68" s="34" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="I68" s="34">
         <v>1</v>
       </c>
       <c r="J68" s="34" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="K68" s="34" t="s">
         <v>21</v>
@@ -8423,7 +8434,7 @@
       <c r="R68" s="41"/>
       <c r="S68" s="30"/>
     </row>
-    <row r="69" spans="1:19" ht="85.5" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:19" ht="84" hidden="1" x14ac:dyDescent="0.35">
       <c r="A69" s="5">
         <v>70</v>
       </c>
@@ -8431,7 +8442,7 @@
         <v>43454</v>
       </c>
       <c r="C69" s="34" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="D69" s="30" t="s">
         <v>15</v>
@@ -8440,19 +8451,19 @@
         <v>39</v>
       </c>
       <c r="F69" s="34" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="G69" s="16" t="s">
         <v>45</v>
       </c>
       <c r="H69" s="30" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="I69" s="30" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="J69" s="30" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="K69" s="30" t="s">
         <v>21</v>
@@ -8472,7 +8483,7 @@
       <c r="R69" s="5"/>
       <c r="S69" s="34"/>
     </row>
-    <row r="70" spans="1:19" ht="114" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:19" ht="70" x14ac:dyDescent="0.35">
       <c r="A70" s="5">
         <v>71</v>
       </c>
@@ -8480,7 +8491,7 @@
         <v>43454</v>
       </c>
       <c r="C70" s="30" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="D70" s="30" t="s">
         <v>47</v>
@@ -8489,19 +8500,19 @@
         <v>31</v>
       </c>
       <c r="F70" s="3" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="G70" s="16" t="s">
         <v>45</v>
       </c>
       <c r="H70" s="30" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="I70" s="30">
         <v>1</v>
       </c>
       <c r="J70" s="30" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="K70" s="30" t="s">
         <v>21</v>
@@ -8510,22 +8521,22 @@
         <v>43452</v>
       </c>
       <c r="M70" s="42">
+        <v>20</v>
+      </c>
+      <c r="N70" s="41">
         <v>30</v>
       </c>
-      <c r="N70" s="41">
-        <v>45</v>
-      </c>
       <c r="O70" s="65" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="P70" s="41" t="s">
-        <v>202</v>
-      </c>
-      <c r="Q70" s="69" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="71" spans="1:19" ht="99.75" x14ac:dyDescent="0.25">
+        <v>200</v>
+      </c>
+      <c r="Q70" s="68" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="71" spans="1:19" ht="98" x14ac:dyDescent="0.35">
       <c r="A71" s="5">
         <v>72</v>
       </c>
@@ -8533,7 +8544,7 @@
         <v>43454</v>
       </c>
       <c r="C71" s="34" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="D71" s="34" t="s">
         <v>47</v>
@@ -8542,19 +8553,19 @@
         <v>31</v>
       </c>
       <c r="F71" s="34" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="G71" s="15" t="s">
         <v>45</v>
       </c>
       <c r="H71" s="34" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="I71" s="34">
         <v>1</v>
       </c>
       <c r="J71" s="34" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="K71" s="34" t="s">
         <v>21</v>
@@ -8568,17 +8579,17 @@
       <c r="N71" s="43">
         <v>15</v>
       </c>
-      <c r="O71" s="65" t="s">
-        <v>201</v>
+      <c r="O71" s="82" t="s">
+        <v>257</v>
       </c>
       <c r="P71" s="5" t="s">
-        <v>214</v>
-      </c>
-      <c r="Q71" s="69" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="72" spans="1:19" ht="128.25" x14ac:dyDescent="0.25">
+        <v>212</v>
+      </c>
+      <c r="Q71" s="68" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="72" spans="1:19" ht="126" hidden="1" x14ac:dyDescent="0.35">
       <c r="A72" s="5">
         <v>73</v>
       </c>
@@ -8586,7 +8597,7 @@
         <v>43465</v>
       </c>
       <c r="C72" s="34" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="D72" s="34" t="s">
         <v>15</v>
@@ -8595,22 +8606,22 @@
         <v>31</v>
       </c>
       <c r="F72" s="34" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="G72" s="15" t="s">
         <v>45</v>
       </c>
       <c r="H72" s="34" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="I72" s="34">
         <v>1</v>
       </c>
       <c r="J72" s="34" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="K72" s="34" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="L72" s="22">
         <v>43465</v>
@@ -8623,7 +8634,7 @@
       <c r="R72" s="5"/>
       <c r="S72" s="34"/>
     </row>
-    <row r="73" spans="1:19" ht="99.75" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:19" ht="84" hidden="1" x14ac:dyDescent="0.35">
       <c r="A73" s="5">
         <v>74</v>
       </c>
@@ -8631,7 +8642,7 @@
         <v>43465</v>
       </c>
       <c r="C73" s="34" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="D73" s="34" t="s">
         <v>15</v>
@@ -8640,22 +8651,22 @@
         <v>31</v>
       </c>
       <c r="F73" s="34" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="G73" s="15" t="s">
         <v>45</v>
       </c>
       <c r="H73" s="34" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="I73" s="34">
         <v>1</v>
       </c>
       <c r="J73" s="34" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="K73" s="34" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="L73" s="22">
         <v>43465</v>
@@ -8668,7 +8679,7 @@
       <c r="R73" s="5"/>
       <c r="S73" s="34"/>
     </row>
-    <row r="74" spans="1:19" ht="57" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:19" ht="56" hidden="1" x14ac:dyDescent="0.35">
       <c r="A74" s="5">
         <v>75</v>
       </c>
@@ -8676,7 +8687,7 @@
         <v>43465</v>
       </c>
       <c r="C74" s="34" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="D74" s="34" t="s">
         <v>15</v>
@@ -8685,22 +8696,22 @@
         <v>31</v>
       </c>
       <c r="F74" s="34" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="G74" s="15" t="s">
         <v>45</v>
       </c>
       <c r="H74" s="34" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="I74" s="34">
         <v>1</v>
       </c>
       <c r="J74" s="34" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="K74" s="34" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="L74" s="22">
         <v>43465</v>
@@ -8713,7 +8724,7 @@
       <c r="R74" s="5"/>
       <c r="S74" s="34"/>
     </row>
-    <row r="75" spans="1:19" ht="57" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:19" ht="56" hidden="1" x14ac:dyDescent="0.35">
       <c r="A75" s="5">
         <v>76</v>
       </c>
@@ -8721,7 +8732,7 @@
         <v>43465</v>
       </c>
       <c r="C75" s="34" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="D75" s="34" t="s">
         <v>15</v>
@@ -8730,22 +8741,22 @@
         <v>31</v>
       </c>
       <c r="F75" s="34" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="G75" s="15" t="s">
         <v>45</v>
       </c>
       <c r="H75" s="34" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="I75" s="34">
         <v>1</v>
       </c>
       <c r="J75" s="34" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="K75" s="34" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="L75" s="22">
         <v>43465</v>
@@ -8755,10 +8766,10 @@
       <c r="O75" s="5"/>
       <c r="P75" s="5"/>
       <c r="Q75" s="5"/>
-      <c r="R75" s="82"/>
+      <c r="R75" s="77"/>
       <c r="S75" s="34"/>
     </row>
-    <row r="76" spans="1:19" ht="142.5" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:19" ht="140" hidden="1" x14ac:dyDescent="0.35">
       <c r="A76" s="5">
         <v>77</v>
       </c>
@@ -8766,7 +8777,7 @@
         <v>43465</v>
       </c>
       <c r="C76" s="34" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="D76" s="34" t="s">
         <v>15</v>
@@ -8775,22 +8786,22 @@
         <v>31</v>
       </c>
       <c r="F76" s="34" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="G76" s="15" t="s">
         <v>45</v>
       </c>
       <c r="H76" s="34" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="I76" s="34">
         <v>1</v>
       </c>
       <c r="J76" s="34" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="K76" s="34" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="L76" s="22">
         <v>43465</v>
@@ -8800,10 +8811,10 @@
       <c r="O76" s="5"/>
       <c r="P76" s="5"/>
       <c r="Q76" s="5"/>
-      <c r="R76" s="82"/>
+      <c r="R76" s="77"/>
       <c r="S76" s="34"/>
     </row>
-    <row r="77" spans="1:19" ht="85.5" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:19" ht="112" x14ac:dyDescent="0.35">
       <c r="A77" s="5">
         <v>78</v>
       </c>
@@ -8811,7 +8822,7 @@
         <v>43477</v>
       </c>
       <c r="C77" s="34" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="D77" s="34" t="s">
         <v>47</v>
@@ -8820,33 +8831,43 @@
         <v>39</v>
       </c>
       <c r="F77" s="20" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="G77" s="15" t="s">
         <v>45</v>
       </c>
       <c r="H77" s="34" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="I77" s="34" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="J77" s="34" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="K77" s="34" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="L77" s="22">
         <v>43477</v>
       </c>
-      <c r="M77" s="33"/>
-      <c r="N77" s="5"/>
-      <c r="O77" s="35"/>
-      <c r="P77" s="5"/>
-      <c r="Q77" s="34"/>
-    </row>
-    <row r="78" spans="1:19" ht="42.75" x14ac:dyDescent="0.25">
+      <c r="M77" s="33">
+        <v>0</v>
+      </c>
+      <c r="N77" s="5">
+        <v>0</v>
+      </c>
+      <c r="O77" s="64" t="s">
+        <v>228</v>
+      </c>
+      <c r="P77" s="5" t="s">
+        <v>183</v>
+      </c>
+      <c r="Q77" s="34" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="78" spans="1:19" ht="42" hidden="1" x14ac:dyDescent="0.35">
       <c r="A78" s="5">
         <v>79</v>
       </c>
@@ -8854,7 +8875,7 @@
         <v>43477</v>
       </c>
       <c r="C78" s="34" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="D78" s="34" t="s">
         <v>15</v>
@@ -8863,22 +8884,22 @@
         <v>31</v>
       </c>
       <c r="F78" s="20" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="G78" s="15" t="s">
         <v>45</v>
       </c>
       <c r="H78" s="34" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="I78" s="34">
         <v>1</v>
       </c>
       <c r="J78" s="34" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="K78" s="34" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="L78" s="22">
         <v>43477</v>
@@ -8889,7 +8910,7 @@
       <c r="P78" s="5"/>
       <c r="Q78" s="34"/>
     </row>
-    <row r="79" spans="1:19" ht="57" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:19" ht="56" hidden="1" x14ac:dyDescent="0.35">
       <c r="A79" s="5">
         <v>80</v>
       </c>
@@ -8897,7 +8918,7 @@
         <v>43477</v>
       </c>
       <c r="C79" s="34" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="D79" s="34" t="s">
         <v>15</v>
@@ -8906,22 +8927,22 @@
         <v>31</v>
       </c>
       <c r="F79" s="34" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="G79" s="15" t="s">
         <v>45</v>
       </c>
       <c r="H79" s="34" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="I79" s="34">
         <v>1</v>
       </c>
       <c r="J79" s="34" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="K79" s="34" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="L79" s="22">
         <v>43477</v>
@@ -8932,7 +8953,7 @@
       <c r="P79" s="5"/>
       <c r="Q79" s="34"/>
     </row>
-    <row r="80" spans="1:19" ht="85.5" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:19" ht="84" hidden="1" x14ac:dyDescent="0.35">
       <c r="A80" s="5">
         <v>81</v>
       </c>
@@ -8940,7 +8961,7 @@
         <v>43477</v>
       </c>
       <c r="C80" s="34" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="D80" s="34" t="s">
         <v>15</v>
@@ -8949,22 +8970,22 @@
         <v>31</v>
       </c>
       <c r="F80" s="34" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="G80" s="15" t="s">
         <v>45</v>
       </c>
       <c r="H80" s="34" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="I80" s="34">
         <v>1</v>
       </c>
       <c r="J80" s="34" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="K80" s="34" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="L80" s="22">
         <v>43477</v>
@@ -8975,7 +8996,7 @@
       <c r="P80" s="5"/>
       <c r="Q80" s="34"/>
     </row>
-    <row r="81" spans="1:17" ht="114" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:17" ht="98" hidden="1" x14ac:dyDescent="0.35">
       <c r="A81" s="5">
         <v>82</v>
       </c>
@@ -8983,7 +9004,7 @@
         <v>43477</v>
       </c>
       <c r="C81" s="34" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="D81" s="34" t="s">
         <v>38</v>
@@ -8992,22 +9013,22 @@
         <v>31</v>
       </c>
       <c r="F81" s="34" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="G81" s="15" t="s">
         <v>45</v>
       </c>
       <c r="H81" s="34" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="I81" s="34">
         <v>1</v>
       </c>
       <c r="J81" s="34" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="K81" s="34" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="L81" s="22">
         <v>43477</v>
@@ -9018,7 +9039,7 @@
       <c r="P81" s="5"/>
       <c r="Q81" s="34"/>
     </row>
-    <row r="82" spans="1:17" ht="71.25" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:17" ht="70" hidden="1" x14ac:dyDescent="0.35">
       <c r="A82" s="5">
         <v>83</v>
       </c>
@@ -9026,31 +9047,31 @@
         <v>43477</v>
       </c>
       <c r="C82" s="34" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="D82" s="34" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="E82" s="34" t="s">
         <v>31</v>
       </c>
       <c r="F82" s="34" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="G82" s="15" t="s">
         <v>45</v>
       </c>
       <c r="H82" s="34" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="I82" s="34">
         <v>1</v>
       </c>
       <c r="J82" s="34" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="K82" s="34" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="L82" s="22">
         <v>43477</v>
@@ -9061,7 +9082,7 @@
       <c r="P82" s="5"/>
       <c r="Q82" s="34"/>
     </row>
-    <row r="83" spans="1:17" ht="57" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:17" ht="56" hidden="1" x14ac:dyDescent="0.35">
       <c r="A83" s="5">
         <v>84</v>
       </c>
@@ -9069,31 +9090,31 @@
         <v>43477</v>
       </c>
       <c r="C83" s="34" t="s">
+        <v>243</v>
+      </c>
+      <c r="D83" s="34" t="s">
         <v>246</v>
-      </c>
-      <c r="D83" s="34" t="s">
-        <v>249</v>
       </c>
       <c r="E83" s="34" t="s">
         <v>31</v>
       </c>
       <c r="F83" s="34" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="G83" s="15" t="s">
         <v>45</v>
       </c>
       <c r="H83" s="34" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="I83" s="34">
         <v>1</v>
       </c>
       <c r="J83" s="34" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="K83" s="34" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="L83" s="22">
         <v>43477</v>
@@ -9105,7 +9126,13 @@
       <c r="Q83" s="34"/>
     </row>
   </sheetData>
-  <autoFilter ref="A2:Q76" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <autoFilter ref="A2:Q83" xr:uid="{00000000-0009-0000-0000-000000000000}">
+    <filterColumn colId="3">
+      <filters>
+        <filter val="Registration Processor"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <mergeCells count="1">
     <mergeCell ref="A1:Q1"/>
   </mergeCells>
@@ -9120,52 +9147,52 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="34.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="34.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B3" s="12" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B4" s="7" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="5" spans="2:2" x14ac:dyDescent="0.25">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="5" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B5" s="7" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B6" s="7" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="7" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B7" s="7" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="8" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B8" s="10" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="9" spans="2:2" x14ac:dyDescent="0.25">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="9" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B9" s="10" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="10" spans="2:2" x14ac:dyDescent="0.25">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="10" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B10" s="10" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="11" spans="2:2" x14ac:dyDescent="0.25">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="11" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B11" s="10"/>
     </row>
   </sheetData>
@@ -9180,27 +9207,27 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="34.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="34.1796875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.81640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" s="36" t="s">
+        <v>169</v>
+      </c>
+      <c r="B3" t="s">
         <v>171</v>
       </c>
-      <c r="B3" t="s">
-        <v>173</v>
-      </c>
       <c r="C3" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" s="37" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B4" s="38">
         <v>1</v>
@@ -9209,7 +9236,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" s="37" t="s">
         <v>38</v>
       </c>
@@ -9220,9 +9247,9 @@
         <v>30</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" s="37" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B6" s="38">
         <v>3</v>
@@ -9231,9 +9258,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" s="37" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B7" s="38">
         <v>3</v>
@@ -9242,7 +9269,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" s="37" t="s">
         <v>15</v>
       </c>
@@ -9253,7 +9280,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9" s="37" t="s">
         <v>47</v>
       </c>
@@ -9264,9 +9291,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A10" s="37" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B10" s="38">
         <v>7</v>
@@ -9275,9 +9302,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A11" s="37" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="B11" s="38">
         <v>64</v>
@@ -9298,41 +9325,41 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="3" max="3" width="52.140625" customWidth="1"/>
+    <col min="3" max="3" width="52.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="70" t="s">
-        <v>243</v>
-      </c>
-      <c r="C1" s="71" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="2" spans="2:3" ht="30.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="72"/>
-      <c r="C2" s="73" t="s">
+    <row r="1" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B1" s="69" t="s">
+        <v>240</v>
+      </c>
+      <c r="C1" s="70" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="2" spans="2:3" ht="31" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B2" s="71"/>
+      <c r="C2" s="72" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="3" spans="2:3" ht="31" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B3" s="73"/>
+      <c r="C3" s="72" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="4" spans="2:3" ht="31" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B4" s="74"/>
+      <c r="C4" s="72" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3" ht="31" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B5" s="75"/>
+      <c r="C5" s="76" t="s">
         <v>239</v>
-      </c>
-    </row>
-    <row r="3" spans="2:3" ht="30.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="74"/>
-      <c r="C3" s="73" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="4" spans="2:3" ht="30.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="75"/>
-      <c r="C4" s="73" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="5" spans="2:3" ht="30.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="76"/>
-      <c r="C5" s="77" t="s">
-        <v>242</v>
       </c>
     </row>
   </sheetData>
@@ -9342,12 +9369,26 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <LikesCount xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <Ratings xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <LikedBy xmlns="http://schemas.microsoft.com/sharepoint/v3">
+      <UserInfo>
+        <DisplayName/>
+        <AccountId xsi:nil="true"/>
+        <AccountType/>
+      </UserInfo>
+    </LikedBy>
+    <RatedBy xmlns="http://schemas.microsoft.com/sharepoint/v3">
+      <UserInfo>
+        <DisplayName/>
+        <AccountId xsi:nil="true"/>
+        <AccountType/>
+      </UserInfo>
+    </RatedBy>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -9523,32 +9564,26 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <LikesCount xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <Ratings xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <LikedBy xmlns="http://schemas.microsoft.com/sharepoint/v3">
-      <UserInfo>
-        <DisplayName/>
-        <AccountId xsi:nil="true"/>
-        <AccountType/>
-      </UserInfo>
-    </LikedBy>
-    <RatedBy xmlns="http://schemas.microsoft.com/sharepoint/v3">
-      <UserInfo>
-        <DisplayName/>
-        <AccountId xsi:nil="true"/>
-        <AccountType/>
-      </UserInfo>
-    </RatedBy>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6B8E61E4-4805-4EED-8CD4-7E0EB2F2E46E}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0212785F-078B-445B-9297-945E33C92ACD}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -9572,17 +9607,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0212785F-078B-445B-9297-945E33C92ACD}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6B8E61E4-4805-4EED-8CD4-7E0EB2F2E46E}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/requirements/MOSIP_FeaturesRoadmap.xlsx
+++ b/requirements/MOSIP_FeaturesRoadmap.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\M1045452\Documents\GitHub\mosip\requirements\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\m1032103\git-repo\mosip\requirements\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2953C7CA-578C-42EE-B7BC-F7D87FC63ED2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{98324262-0210-4CB8-8C47-2DAE089597F7}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9680" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9675" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="MOSIP_Feature_Roadmap" sheetId="5" r:id="rId1"/>
@@ -21,7 +21,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">MOSIP_Feature_Roadmap!$A$2:$Q$83</definedName>
   </definedNames>
-  <calcPr calcId="179021"/>
+  <calcPr calcId="179017"/>
   <pivotCaches>
     <pivotCache cacheId="0" r:id="rId5"/>
   </pivotCaches>
@@ -30,17 +30,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="798" uniqueCount="258">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="806" uniqueCount="259">
   <si>
     <t>S.No.</t>
   </si>
@@ -3064,6 +3059,31 @@
   <si>
     <t>Dev in Progress
 Kernel is developing API for the same</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>Additional eKYC API for authentication by an authorized agency</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>:
+i. GoM will require an additional API 
+ii. MOSIP to provide an additional API to fetch specific data of an individual based on UIN number (Evaluate security aspect, as linking of HoF and maintenance of family relationship will be required as a security imperative) and send to Social Protection Data System
+iii. MOSIP to provide a mechanism to record the consent of HoF
+iv. This is required to accommodate Household Program of GoM</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -3371,7 +3391,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="83">
+  <cellXfs count="90">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -3592,6 +3612,9 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="2" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3604,8 +3627,26 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="15" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="15" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -5164,58 +5205,57 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr filterMode="1"/>
-  <dimension ref="A1:S83"/>
+  <dimension ref="A1:S84"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A71" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A84" sqref="A84"/>
+      <pane ySplit="2" topLeftCell="A81" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A85" sqref="A85"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.26953125" defaultRowHeight="14" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="20.28515625" defaultRowHeight="14.25" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.453125" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.42578125" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14" style="2" customWidth="1"/>
-    <col min="3" max="3" width="30.453125" style="2" customWidth="1"/>
-    <col min="4" max="4" width="15.7265625" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.7265625" style="3" customWidth="1"/>
-    <col min="6" max="6" width="71.1796875" style="3" customWidth="1"/>
-    <col min="7" max="7" width="13.26953125" style="17" customWidth="1"/>
-    <col min="8" max="8" width="44.453125" style="3" customWidth="1"/>
-    <col min="9" max="9" width="9.26953125" style="3" customWidth="1"/>
-    <col min="10" max="10" width="20.81640625" style="3" customWidth="1"/>
-    <col min="11" max="11" width="12.26953125" style="3" customWidth="1"/>
-    <col min="12" max="12" width="12.54296875" style="3" customWidth="1"/>
-    <col min="13" max="13" width="15.1796875" style="29" customWidth="1"/>
-    <col min="14" max="14" width="15.81640625" style="2" customWidth="1"/>
-    <col min="15" max="15" width="15.81640625" style="11" customWidth="1"/>
-    <col min="16" max="16" width="15.81640625" style="2" customWidth="1"/>
-    <col min="17" max="17" width="53.7265625" style="3" customWidth="1"/>
-    <col min="18" max="16384" width="20.26953125" style="11"/>
+    <col min="3" max="3" width="30.42578125" style="2" customWidth="1"/>
+    <col min="4" max="4" width="15.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.7109375" style="3" customWidth="1"/>
+    <col min="6" max="6" width="71.140625" style="3" customWidth="1"/>
+    <col min="7" max="7" width="13.28515625" style="17" customWidth="1"/>
+    <col min="8" max="8" width="44.42578125" style="3" customWidth="1"/>
+    <col min="9" max="9" width="9.28515625" style="3" customWidth="1"/>
+    <col min="10" max="10" width="20.85546875" style="3" customWidth="1"/>
+    <col min="11" max="11" width="12.28515625" style="3" customWidth="1"/>
+    <col min="12" max="12" width="12.5703125" style="3" customWidth="1"/>
+    <col min="13" max="13" width="15.140625" style="29" customWidth="1"/>
+    <col min="14" max="14" width="15.85546875" style="2" customWidth="1"/>
+    <col min="15" max="15" width="15.85546875" style="11" customWidth="1"/>
+    <col min="16" max="16" width="15.85546875" style="2" customWidth="1"/>
+    <col min="17" max="17" width="53.7109375" style="3" customWidth="1"/>
+    <col min="18" max="16384" width="20.28515625" style="11"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="78" t="s">
+    <row r="1" spans="1:17" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="79" t="s">
         <v>242</v>
       </c>
-      <c r="B1" s="79"/>
-      <c r="C1" s="79"/>
-      <c r="D1" s="79"/>
-      <c r="E1" s="79"/>
-      <c r="F1" s="79"/>
-      <c r="G1" s="79"/>
-      <c r="H1" s="79"/>
-      <c r="I1" s="79"/>
-      <c r="J1" s="79"/>
-      <c r="K1" s="79"/>
-      <c r="L1" s="79"/>
-      <c r="M1" s="79"/>
-      <c r="N1" s="79"/>
-      <c r="O1" s="80"/>
-      <c r="P1" s="79"/>
-      <c r="Q1" s="81"/>
-    </row>
-    <row r="2" spans="1:17" ht="42" x14ac:dyDescent="0.35">
+      <c r="B1" s="80"/>
+      <c r="C1" s="80"/>
+      <c r="D1" s="80"/>
+      <c r="E1" s="80"/>
+      <c r="F1" s="80"/>
+      <c r="G1" s="80"/>
+      <c r="H1" s="80"/>
+      <c r="I1" s="80"/>
+      <c r="J1" s="80"/>
+      <c r="K1" s="80"/>
+      <c r="L1" s="80"/>
+      <c r="M1" s="80"/>
+      <c r="N1" s="80"/>
+      <c r="O1" s="81"/>
+      <c r="P1" s="80"/>
+      <c r="Q1" s="82"/>
+    </row>
+    <row r="2" spans="1:17" ht="57" x14ac:dyDescent="0.25">
       <c r="A2" s="19" t="s">
         <v>0</v>
       </c>
@@ -5268,7 +5308,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:17" s="4" customFormat="1" ht="112" hidden="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:17" s="4" customFormat="1" ht="114" x14ac:dyDescent="0.25">
       <c r="A3" s="5">
         <v>1</v>
       </c>
@@ -5317,7 +5357,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="1:17" s="4" customFormat="1" ht="56" hidden="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:17" s="4" customFormat="1" ht="57" x14ac:dyDescent="0.25">
       <c r="A4" s="5">
         <v>2</v>
       </c>
@@ -5366,7 +5406,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="5" spans="1:17" s="4" customFormat="1" ht="70" hidden="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:17" s="4" customFormat="1" ht="71.25" x14ac:dyDescent="0.25">
       <c r="A5" s="5">
         <v>3</v>
       </c>
@@ -5415,7 +5455,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="6" spans="1:17" s="4" customFormat="1" ht="56" hidden="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:17" s="4" customFormat="1" ht="57" x14ac:dyDescent="0.25">
       <c r="A6" s="5">
         <v>4</v>
       </c>
@@ -5464,7 +5504,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="7" spans="1:17" s="1" customFormat="1" ht="42" hidden="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:17" s="1" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A7" s="5">
         <v>5</v>
       </c>
@@ -5511,7 +5551,7 @@
       <c r="P7" s="32"/>
       <c r="Q7" s="22"/>
     </row>
-    <row r="8" spans="1:17" s="1" customFormat="1" ht="56" hidden="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:17" s="1" customFormat="1" ht="57" x14ac:dyDescent="0.2">
       <c r="A8" s="5">
         <v>6</v>
       </c>
@@ -5558,7 +5598,7 @@
       <c r="P8" s="32"/>
       <c r="Q8" s="22"/>
     </row>
-    <row r="9" spans="1:17" s="1" customFormat="1" ht="210" hidden="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:17" s="1" customFormat="1" ht="213.75" x14ac:dyDescent="0.2">
       <c r="A9" s="5">
         <v>7</v>
       </c>
@@ -5604,7 +5644,7 @@
       <c r="P9" s="32"/>
       <c r="Q9" s="22"/>
     </row>
-    <row r="10" spans="1:17" s="1" customFormat="1" ht="56" hidden="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:17" s="1" customFormat="1" ht="71.25" x14ac:dyDescent="0.2">
       <c r="A10" s="5">
         <v>8</v>
       </c>
@@ -5653,7 +5693,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="11" spans="1:17" s="1" customFormat="1" ht="120" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:17" s="1" customFormat="1" ht="120" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="5">
         <v>9</v>
       </c>
@@ -5706,7 +5746,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="12" spans="1:17" s="1" customFormat="1" ht="126.65" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:17" s="1" customFormat="1" ht="126.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="5">
         <v>10</v>
       </c>
@@ -5759,7 +5799,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="13" spans="1:17" s="4" customFormat="1" ht="154" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:17" s="4" customFormat="1" ht="171" x14ac:dyDescent="0.25">
       <c r="A13" s="5">
         <v>11</v>
       </c>
@@ -5812,7 +5852,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="14" spans="1:17" s="1" customFormat="1" ht="98" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:17" s="1" customFormat="1" ht="114" x14ac:dyDescent="0.2">
       <c r="A14" s="5">
         <v>12</v>
       </c>
@@ -5865,7 +5905,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="15" spans="1:17" s="4" customFormat="1" ht="98" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:17" s="4" customFormat="1" ht="114" x14ac:dyDescent="0.25">
       <c r="A15" s="5">
         <v>13</v>
       </c>
@@ -5918,7 +5958,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="16" spans="1:17" s="1" customFormat="1" ht="42" hidden="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:17" s="1" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A16" s="5">
         <v>14</v>
       </c>
@@ -5959,7 +5999,7 @@
       <c r="P16" s="32"/>
       <c r="Q16" s="22"/>
     </row>
-    <row r="17" spans="1:17" s="4" customFormat="1" ht="42" hidden="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:17" s="4" customFormat="1" ht="42.75" x14ac:dyDescent="0.25">
       <c r="A17" s="5">
         <v>15</v>
       </c>
@@ -6000,7 +6040,7 @@
       <c r="P17" s="32"/>
       <c r="Q17" s="22"/>
     </row>
-    <row r="18" spans="1:17" ht="84" hidden="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:17" ht="99.75" x14ac:dyDescent="0.25">
       <c r="A18" s="5">
         <v>16</v>
       </c>
@@ -6049,7 +6089,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="19" spans="1:17" ht="84" hidden="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:17" ht="99.75" x14ac:dyDescent="0.25">
       <c r="A19" s="5">
         <v>17</v>
       </c>
@@ -6098,7 +6138,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="20" spans="1:17" ht="84" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:17" ht="99.75" x14ac:dyDescent="0.25">
       <c r="A20" s="5">
         <v>18</v>
       </c>
@@ -6151,7 +6191,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="21" spans="1:17" ht="84" hidden="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:17" ht="85.5" x14ac:dyDescent="0.25">
       <c r="A21" s="5">
         <v>19</v>
       </c>
@@ -6194,7 +6234,7 @@
       <c r="P21" s="32"/>
       <c r="Q21" s="22"/>
     </row>
-    <row r="22" spans="1:17" ht="84" hidden="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:17" ht="99.75" x14ac:dyDescent="0.25">
       <c r="A22" s="5">
         <v>20</v>
       </c>
@@ -6237,7 +6277,7 @@
       <c r="P22" s="32"/>
       <c r="Q22" s="22"/>
     </row>
-    <row r="23" spans="1:17" ht="84" hidden="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:17" ht="99.75" x14ac:dyDescent="0.25">
       <c r="A23" s="5">
         <v>21</v>
       </c>
@@ -6286,7 +6326,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="24" spans="1:17" ht="84" hidden="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:17" ht="85.5" x14ac:dyDescent="0.25">
       <c r="A24" s="5">
         <v>22</v>
       </c>
@@ -6335,7 +6375,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="25" spans="1:17" ht="84" hidden="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:17" ht="85.5" x14ac:dyDescent="0.25">
       <c r="A25" s="5">
         <v>23</v>
       </c>
@@ -6378,7 +6418,7 @@
       <c r="P25" s="32"/>
       <c r="Q25" s="22"/>
     </row>
-    <row r="26" spans="1:17" ht="42" hidden="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:17" ht="42.75" x14ac:dyDescent="0.25">
       <c r="A26" s="5">
         <v>24</v>
       </c>
@@ -6425,7 +6465,7 @@
       <c r="P26" s="32"/>
       <c r="Q26" s="15"/>
     </row>
-    <row r="27" spans="1:17" ht="101.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:17" ht="101.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="5">
         <v>25</v>
       </c>
@@ -6478,7 +6518,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="28" spans="1:17" ht="42" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:17" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="5">
         <v>26</v>
       </c>
@@ -6525,7 +6565,7 @@
       <c r="P28" s="32"/>
       <c r="Q28" s="34"/>
     </row>
-    <row r="29" spans="1:17" s="8" customFormat="1" ht="84" hidden="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:17" s="8" customFormat="1" ht="85.5" x14ac:dyDescent="0.25">
       <c r="A29" s="5">
         <v>27</v>
       </c>
@@ -6574,7 +6614,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="30" spans="1:17" s="8" customFormat="1" ht="42" hidden="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:17" s="8" customFormat="1" ht="42.75" x14ac:dyDescent="0.25">
       <c r="A30" s="5">
         <v>28</v>
       </c>
@@ -6623,7 +6663,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="31" spans="1:17" ht="42" hidden="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:17" ht="42.75" x14ac:dyDescent="0.25">
       <c r="A31" s="5">
         <v>29</v>
       </c>
@@ -6670,7 +6710,7 @@
       <c r="P31" s="32"/>
       <c r="Q31" s="15"/>
     </row>
-    <row r="32" spans="1:17" ht="126" hidden="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:17" ht="128.25" x14ac:dyDescent="0.25">
       <c r="A32" s="5">
         <v>30</v>
       </c>
@@ -6719,7 +6759,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="33" spans="1:17" ht="70" hidden="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:17" ht="71.25" x14ac:dyDescent="0.25">
       <c r="A33" s="5">
         <v>31</v>
       </c>
@@ -6768,7 +6808,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="34" spans="1:17" ht="140" hidden="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:17" ht="142.5" x14ac:dyDescent="0.25">
       <c r="A34" s="5">
         <v>32</v>
       </c>
@@ -6817,7 +6857,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="35" spans="1:17" ht="70" hidden="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:17" ht="71.25" x14ac:dyDescent="0.25">
       <c r="A35" s="5">
         <v>33</v>
       </c>
@@ -6866,7 +6906,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="36" spans="1:17" ht="36" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:17" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="5">
         <v>34</v>
       </c>
@@ -6909,7 +6949,7 @@
       <c r="P36" s="32"/>
       <c r="Q36" s="34"/>
     </row>
-    <row r="37" spans="1:17" ht="28" hidden="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:17" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A37" s="5">
         <v>35</v>
       </c>
@@ -6955,7 +6995,7 @@
       <c r="P37" s="32"/>
       <c r="Q37" s="34"/>
     </row>
-    <row r="38" spans="1:17" ht="28" hidden="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:17" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A38" s="5">
         <v>36</v>
       </c>
@@ -7003,7 +7043,7 @@
       <c r="P38" s="32"/>
       <c r="Q38" s="34"/>
     </row>
-    <row r="39" spans="1:17" ht="28" hidden="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:17" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A39" s="5">
         <v>37</v>
       </c>
@@ -7049,7 +7089,7 @@
       <c r="P39" s="32"/>
       <c r="Q39" s="34"/>
     </row>
-    <row r="40" spans="1:17" ht="252" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:17" ht="256.5" x14ac:dyDescent="0.25">
       <c r="A40" s="5">
         <v>38</v>
       </c>
@@ -7100,7 +7140,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="41" spans="1:17" ht="98" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:17" ht="99.75" x14ac:dyDescent="0.25">
       <c r="A41" s="5">
         <v>40</v>
       </c>
@@ -7147,7 +7187,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="42" spans="1:17" ht="83.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:17" ht="83.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="5">
         <v>41</v>
       </c>
@@ -7200,7 +7240,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="43" spans="1:17" ht="126" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:17" ht="99.75" x14ac:dyDescent="0.25">
       <c r="A43" s="5">
         <v>42</v>
       </c>
@@ -7253,7 +7293,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="44" spans="1:17" ht="56" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:17" ht="57" x14ac:dyDescent="0.25">
       <c r="A44" s="5">
         <v>45</v>
       </c>
@@ -7296,7 +7336,7 @@
       <c r="P44" s="32"/>
       <c r="Q44" s="34"/>
     </row>
-    <row r="45" spans="1:17" ht="70" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:17" ht="57" x14ac:dyDescent="0.25">
       <c r="A45" s="5">
         <v>46</v>
       </c>
@@ -7349,7 +7389,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="46" spans="1:17" ht="56" hidden="1" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:17" ht="57" x14ac:dyDescent="0.25">
       <c r="A46" s="5">
         <v>47</v>
       </c>
@@ -7398,7 +7438,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="47" spans="1:17" ht="42" hidden="1" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:17" ht="42.75" x14ac:dyDescent="0.25">
       <c r="A47" s="5">
         <v>48</v>
       </c>
@@ -7444,7 +7484,7 @@
       <c r="P47" s="32"/>
       <c r="Q47" s="34"/>
     </row>
-    <row r="48" spans="1:17" ht="140" hidden="1" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:17" ht="156.75" x14ac:dyDescent="0.25">
       <c r="A48" s="5">
         <v>49</v>
       </c>
@@ -7487,7 +7527,7 @@
       <c r="P48" s="32"/>
       <c r="Q48" s="34"/>
     </row>
-    <row r="49" spans="1:17" ht="42" hidden="1" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:17" ht="42.75" x14ac:dyDescent="0.25">
       <c r="A49" s="5">
         <v>50</v>
       </c>
@@ -7536,7 +7576,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="50" spans="1:17" ht="42" hidden="1" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:17" ht="42.75" x14ac:dyDescent="0.25">
       <c r="A50" s="5">
         <v>51</v>
       </c>
@@ -7579,7 +7619,7 @@
       <c r="P50" s="32"/>
       <c r="Q50" s="34"/>
     </row>
-    <row r="51" spans="1:17" ht="28" hidden="1" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:17" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A51" s="5">
         <v>52</v>
       </c>
@@ -7625,7 +7665,7 @@
       <c r="P51" s="32"/>
       <c r="Q51" s="34"/>
     </row>
-    <row r="52" spans="1:17" ht="42" hidden="1" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:17" ht="42.75" x14ac:dyDescent="0.25">
       <c r="A52" s="5">
         <v>53</v>
       </c>
@@ -7674,7 +7714,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="53" spans="1:17" ht="84" hidden="1" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:17" ht="57" x14ac:dyDescent="0.25">
       <c r="A53" s="5">
         <v>54</v>
       </c>
@@ -7723,7 +7763,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="54" spans="1:17" ht="42" hidden="1" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:17" ht="42.75" x14ac:dyDescent="0.25">
       <c r="A54" s="5">
         <v>55</v>
       </c>
@@ -7769,7 +7809,7 @@
       <c r="P54" s="32"/>
       <c r="Q54" s="34"/>
     </row>
-    <row r="55" spans="1:17" ht="56" hidden="1" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:17" ht="57" x14ac:dyDescent="0.25">
       <c r="A55" s="5">
         <v>56</v>
       </c>
@@ -7815,7 +7855,7 @@
       <c r="P55" s="32"/>
       <c r="Q55" s="34"/>
     </row>
-    <row r="56" spans="1:17" ht="70" hidden="1" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:17" ht="71.25" x14ac:dyDescent="0.25">
       <c r="A56" s="5">
         <v>57</v>
       </c>
@@ -7862,7 +7902,7 @@
       <c r="P56" s="32"/>
       <c r="Q56" s="34"/>
     </row>
-    <row r="57" spans="1:17" ht="42" hidden="1" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:17" ht="42.75" x14ac:dyDescent="0.25">
       <c r="A57" s="5">
         <v>58</v>
       </c>
@@ -7911,7 +7951,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="58" spans="1:17" ht="84" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:17" ht="71.25" x14ac:dyDescent="0.25">
       <c r="A58" s="5">
         <v>59</v>
       </c>
@@ -7964,7 +8004,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="59" spans="1:17" ht="84" hidden="1" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:17" ht="99.75" x14ac:dyDescent="0.25">
       <c r="A59" s="5">
         <v>60</v>
       </c>
@@ -8007,7 +8047,7 @@
       <c r="P59" s="35"/>
       <c r="Q59" s="34"/>
     </row>
-    <row r="60" spans="1:17" ht="56" hidden="1" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:17" ht="57" x14ac:dyDescent="0.25">
       <c r="A60" s="5">
         <v>61</v>
       </c>
@@ -8050,7 +8090,7 @@
       <c r="P60" s="35"/>
       <c r="Q60" s="34"/>
     </row>
-    <row r="61" spans="1:17" ht="154" hidden="1" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:17" ht="171" x14ac:dyDescent="0.25">
       <c r="A61" s="5">
         <v>62</v>
       </c>
@@ -8099,7 +8139,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="62" spans="1:17" ht="98" hidden="1" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:17" ht="99.75" x14ac:dyDescent="0.25">
       <c r="A62" s="5">
         <v>63</v>
       </c>
@@ -8148,7 +8188,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="63" spans="1:17" ht="98" hidden="1" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:17" ht="99.75" x14ac:dyDescent="0.25">
       <c r="A63" s="5">
         <v>64</v>
       </c>
@@ -8197,7 +8237,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="64" spans="1:17" ht="210" hidden="1" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:17" ht="228" x14ac:dyDescent="0.25">
       <c r="A64" s="5">
         <v>65</v>
       </c>
@@ -8244,7 +8284,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="65" spans="1:19" ht="42" hidden="1" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:19" ht="42.75" x14ac:dyDescent="0.25">
       <c r="A65" s="5">
         <v>66</v>
       </c>
@@ -8289,7 +8329,7 @@
       <c r="P65" s="5"/>
       <c r="Q65" s="34"/>
     </row>
-    <row r="66" spans="1:19" ht="106.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:19" ht="106.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="5">
         <v>67</v>
       </c>
@@ -8336,7 +8376,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="67" spans="1:19" ht="112" hidden="1" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:19" ht="114" x14ac:dyDescent="0.25">
       <c r="A67" s="5">
         <v>68</v>
       </c>
@@ -8387,7 +8427,7 @@
       <c r="R67" s="5"/>
       <c r="S67" s="34"/>
     </row>
-    <row r="68" spans="1:19" ht="112" hidden="1" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:19" ht="128.25" x14ac:dyDescent="0.25">
       <c r="A68" s="5">
         <v>69</v>
       </c>
@@ -8434,7 +8474,7 @@
       <c r="R68" s="41"/>
       <c r="S68" s="30"/>
     </row>
-    <row r="69" spans="1:19" ht="84" hidden="1" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:19" ht="85.5" x14ac:dyDescent="0.25">
       <c r="A69" s="5">
         <v>70</v>
       </c>
@@ -8483,7 +8523,7 @@
       <c r="R69" s="5"/>
       <c r="S69" s="34"/>
     </row>
-    <row r="70" spans="1:19" ht="70" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:19" ht="85.5" x14ac:dyDescent="0.25">
       <c r="A70" s="5">
         <v>71</v>
       </c>
@@ -8536,7 +8576,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="71" spans="1:19" ht="98" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:19" ht="99.75" x14ac:dyDescent="0.25">
       <c r="A71" s="5">
         <v>72</v>
       </c>
@@ -8579,7 +8619,7 @@
       <c r="N71" s="43">
         <v>15</v>
       </c>
-      <c r="O71" s="82" t="s">
+      <c r="O71" s="78" t="s">
         <v>257</v>
       </c>
       <c r="P71" s="5" t="s">
@@ -8589,7 +8629,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="72" spans="1:19" ht="126" hidden="1" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:19" ht="128.25" x14ac:dyDescent="0.25">
       <c r="A72" s="5">
         <v>73</v>
       </c>
@@ -8634,7 +8674,7 @@
       <c r="R72" s="5"/>
       <c r="S72" s="34"/>
     </row>
-    <row r="73" spans="1:19" ht="84" hidden="1" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:19" ht="99.75" x14ac:dyDescent="0.25">
       <c r="A73" s="5">
         <v>74</v>
       </c>
@@ -8679,7 +8719,7 @@
       <c r="R73" s="5"/>
       <c r="S73" s="34"/>
     </row>
-    <row r="74" spans="1:19" ht="56" hidden="1" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:19" ht="57" x14ac:dyDescent="0.25">
       <c r="A74" s="5">
         <v>75</v>
       </c>
@@ -8724,7 +8764,7 @@
       <c r="R74" s="5"/>
       <c r="S74" s="34"/>
     </row>
-    <row r="75" spans="1:19" ht="56" hidden="1" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:19" ht="57" x14ac:dyDescent="0.25">
       <c r="A75" s="5">
         <v>76</v>
       </c>
@@ -8769,7 +8809,7 @@
       <c r="R75" s="77"/>
       <c r="S75" s="34"/>
     </row>
-    <row r="76" spans="1:19" ht="140" hidden="1" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:19" ht="142.5" x14ac:dyDescent="0.25">
       <c r="A76" s="5">
         <v>77</v>
       </c>
@@ -8814,7 +8854,7 @@
       <c r="R76" s="77"/>
       <c r="S76" s="34"/>
     </row>
-    <row r="77" spans="1:19" ht="112" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:19" ht="114" x14ac:dyDescent="0.25">
       <c r="A77" s="5">
         <v>78</v>
       </c>
@@ -8867,7 +8907,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="78" spans="1:19" ht="42" hidden="1" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:19" ht="42.75" x14ac:dyDescent="0.25">
       <c r="A78" s="5">
         <v>79</v>
       </c>
@@ -8910,7 +8950,7 @@
       <c r="P78" s="5"/>
       <c r="Q78" s="34"/>
     </row>
-    <row r="79" spans="1:19" ht="56" hidden="1" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:19" ht="57" x14ac:dyDescent="0.25">
       <c r="A79" s="5">
         <v>80</v>
       </c>
@@ -8953,7 +8993,7 @@
       <c r="P79" s="5"/>
       <c r="Q79" s="34"/>
     </row>
-    <row r="80" spans="1:19" ht="84" hidden="1" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:19" ht="85.5" x14ac:dyDescent="0.25">
       <c r="A80" s="5">
         <v>81</v>
       </c>
@@ -8996,7 +9036,7 @@
       <c r="P80" s="5"/>
       <c r="Q80" s="34"/>
     </row>
-    <row r="81" spans="1:17" ht="98" hidden="1" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:17" ht="114" x14ac:dyDescent="0.25">
       <c r="A81" s="5">
         <v>82</v>
       </c>
@@ -9039,100 +9079,137 @@
       <c r="P81" s="5"/>
       <c r="Q81" s="34"/>
     </row>
-    <row r="82" spans="1:17" ht="70" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A82" s="5">
+    <row r="82" spans="1:17" ht="114" x14ac:dyDescent="0.25">
+      <c r="A82" s="83">
         <v>83</v>
       </c>
-      <c r="B82" s="6">
+      <c r="B82" s="84">
         <v>43477</v>
       </c>
-      <c r="C82" s="34" t="s">
+      <c r="C82" s="88" t="s">
         <v>243</v>
       </c>
-      <c r="D82" s="34" t="s">
+      <c r="D82" s="88" t="s">
+        <v>38</v>
+      </c>
+      <c r="E82" s="88" t="s">
+        <v>31</v>
+      </c>
+      <c r="F82" s="88" t="s">
+        <v>258</v>
+      </c>
+      <c r="G82" s="85" t="s">
+        <v>45</v>
+      </c>
+      <c r="H82" s="88" t="s">
+        <v>97</v>
+      </c>
+      <c r="I82" s="88">
+        <v>1</v>
+      </c>
+      <c r="J82" s="88" t="s">
+        <v>85</v>
+      </c>
+      <c r="K82" s="88" t="s">
+        <v>244</v>
+      </c>
+      <c r="L82" s="86">
+        <v>43477</v>
+      </c>
+      <c r="M82" s="87"/>
+      <c r="N82" s="83"/>
+      <c r="O82" s="89"/>
+      <c r="P82" s="83"/>
+      <c r="Q82" s="88"/>
+    </row>
+    <row r="83" spans="1:17" ht="71.25" x14ac:dyDescent="0.25">
+      <c r="A83" s="83">
+        <v>84</v>
+      </c>
+      <c r="B83" s="84">
+        <v>43477</v>
+      </c>
+      <c r="C83" s="88" t="s">
+        <v>243</v>
+      </c>
+      <c r="D83" s="88" t="s">
         <v>245</v>
       </c>
-      <c r="E82" s="34" t="s">
+      <c r="E83" s="88" t="s">
         <v>31</v>
       </c>
-      <c r="F82" s="34" t="s">
+      <c r="F83" s="88" t="s">
         <v>252</v>
       </c>
-      <c r="G82" s="15" t="s">
+      <c r="G83" s="85" t="s">
         <v>45</v>
       </c>
-      <c r="H82" s="34" t="s">
+      <c r="H83" s="88" t="s">
         <v>97</v>
       </c>
-      <c r="I82" s="34">
+      <c r="I83" s="88">
         <v>1</v>
       </c>
-      <c r="J82" s="34" t="s">
+      <c r="J83" s="88" t="s">
         <v>85</v>
       </c>
-      <c r="K82" s="34" t="s">
+      <c r="K83" s="88" t="s">
         <v>244</v>
       </c>
-      <c r="L82" s="22">
+      <c r="L83" s="86">
         <v>43477</v>
       </c>
-      <c r="M82" s="33"/>
-      <c r="N82" s="5"/>
-      <c r="O82" s="35"/>
-      <c r="P82" s="5"/>
-      <c r="Q82" s="34"/>
-    </row>
-    <row r="83" spans="1:17" ht="56" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A83" s="5">
-        <v>84</v>
-      </c>
-      <c r="B83" s="6">
+      <c r="M83" s="87"/>
+      <c r="N83" s="83"/>
+      <c r="O83" s="89"/>
+      <c r="P83" s="83"/>
+      <c r="Q83" s="88"/>
+    </row>
+    <row r="84" spans="1:17" ht="57" x14ac:dyDescent="0.25">
+      <c r="A84" s="83">
+        <v>85</v>
+      </c>
+      <c r="B84" s="84">
         <v>43477</v>
       </c>
-      <c r="C83" s="34" t="s">
+      <c r="C84" s="88" t="s">
         <v>243</v>
       </c>
-      <c r="D83" s="34" t="s">
+      <c r="D84" s="88" t="s">
         <v>246</v>
       </c>
-      <c r="E83" s="34" t="s">
+      <c r="E84" s="88" t="s">
         <v>31</v>
       </c>
-      <c r="F83" s="34" t="s">
+      <c r="F84" s="88" t="s">
         <v>253</v>
       </c>
-      <c r="G83" s="15" t="s">
+      <c r="G84" s="85" t="s">
         <v>45</v>
       </c>
-      <c r="H83" s="34" t="s">
+      <c r="H84" s="88" t="s">
         <v>97</v>
       </c>
-      <c r="I83" s="34">
+      <c r="I84" s="88">
         <v>1</v>
       </c>
-      <c r="J83" s="34" t="s">
+      <c r="J84" s="88" t="s">
         <v>85</v>
       </c>
-      <c r="K83" s="34" t="s">
+      <c r="K84" s="88" t="s">
         <v>244</v>
       </c>
-      <c r="L83" s="22">
+      <c r="L84" s="86">
         <v>43477</v>
       </c>
-      <c r="M83" s="33"/>
-      <c r="N83" s="5"/>
-      <c r="O83" s="35"/>
-      <c r="P83" s="5"/>
-      <c r="Q83" s="34"/>
+      <c r="M84" s="87"/>
+      <c r="N84" s="83"/>
+      <c r="O84" s="89"/>
+      <c r="P84" s="83"/>
+      <c r="Q84" s="88"/>
     </row>
   </sheetData>
-  <autoFilter ref="A2:Q83" xr:uid="{00000000-0009-0000-0000-000000000000}">
-    <filterColumn colId="3">
-      <filters>
-        <filter val="Registration Processor"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A2:Q83" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <mergeCells count="1">
     <mergeCell ref="A1:Q1"/>
   </mergeCells>
@@ -9147,52 +9224,52 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="34.1796875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="34.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B3" s="12" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B4" s="7" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="5" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B5" s="7" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B6" s="7" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="7" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="7" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B7" s="7" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="8" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B8" s="10" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="9" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="9" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B9" s="10" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="10" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="10" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B10" s="10" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="11" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="11" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B11" s="10"/>
     </row>
   </sheetData>
@@ -9207,14 +9284,14 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="34.1796875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.81640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.453125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="34.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="36" t="s">
         <v>169</v>
       </c>
@@ -9225,7 +9302,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="37" t="s">
         <v>83</v>
       </c>
@@ -9236,7 +9313,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="37" t="s">
         <v>38</v>
       </c>
@@ -9247,7 +9324,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="37" t="s">
         <v>142</v>
       </c>
@@ -9258,7 +9335,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="37" t="s">
         <v>91</v>
       </c>
@@ -9269,7 +9346,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="37" t="s">
         <v>15</v>
       </c>
@@ -9280,7 +9357,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="37" t="s">
         <v>47</v>
       </c>
@@ -9291,7 +9368,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="37" t="s">
         <v>60</v>
       </c>
@@ -9302,7 +9379,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="37" t="s">
         <v>170</v>
       </c>
@@ -9325,12 +9402,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="52.1796875" customWidth="1"/>
+    <col min="3" max="3" width="52.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B1" s="69" t="s">
         <v>240</v>
       </c>
@@ -9338,25 +9415,25 @@
         <v>241</v>
       </c>
     </row>
-    <row r="2" spans="2:3" ht="31" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="2:3" ht="30.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="71"/>
       <c r="C2" s="72" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="3" spans="2:3" ht="31" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="2:3" ht="30.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="73"/>
       <c r="C3" s="72" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="4" spans="2:3" ht="31" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="2:3" ht="30.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="74"/>
       <c r="C4" s="72" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="5" spans="2:3" ht="31" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="2:3" ht="30.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B5" s="75"/>
       <c r="C5" s="76" t="s">
         <v>239</v>
@@ -9369,29 +9446,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <LikesCount xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <Ratings xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <LikedBy xmlns="http://schemas.microsoft.com/sharepoint/v3">
-      <UserInfo>
-        <DisplayName/>
-        <AccountId xsi:nil="true"/>
-        <AccountType/>
-      </UserInfo>
-    </LikedBy>
-    <RatedBy xmlns="http://schemas.microsoft.com/sharepoint/v3">
-      <UserInfo>
-        <DisplayName/>
-        <AccountId xsi:nil="true"/>
-        <AccountType/>
-      </UserInfo>
-    </RatedBy>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100D32E068FDE16E34B8075022FB1536456" ma:contentTypeVersion="5" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="d905b7d076fda08b8ad7ac1f301e6870">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="7784986bdb25cf89cb05135ef15ccb6c" ns1:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -9563,6 +9617,29 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <LikesCount xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <Ratings xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <LikedBy xmlns="http://schemas.microsoft.com/sharepoint/v3">
+      <UserInfo>
+        <DisplayName/>
+        <AccountId xsi:nil="true"/>
+        <AccountType/>
+      </UserInfo>
+    </LikedBy>
+    <RatedBy xmlns="http://schemas.microsoft.com/sharepoint/v3">
+      <UserInfo>
+        <DisplayName/>
+        <AccountId xsi:nil="true"/>
+        <AccountType/>
+      </UserInfo>
+    </RatedBy>
+  </documentManagement>
+</p:properties>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -9573,22 +9650,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0212785F-078B-445B-9297-945E33C92ACD}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{62A013D4-4E69-4E0D-8B8F-1AA53B7A2CEA}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -9606,6 +9667,22 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0212785F-078B-445B-9297-945E33C92ACD}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6B8E61E4-4805-4EED-8CD4-7E0EB2F2E46E}">
   <ds:schemaRefs>

--- a/requirements/MOSIP_FeaturesRoadmap.xlsx
+++ b/requirements/MOSIP_FeaturesRoadmap.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\M1045452\Documents\GitHub\mosip\requirements\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2953C7CA-578C-42EE-B7BC-F7D87FC63ED2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37EFAD6E-1406-4882-991D-55AEE15BD9DE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9680" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3592,6 +3592,9 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="2" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3603,9 +3606,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -5167,9 +5167,9 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:S83"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="I1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A71" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A84" sqref="A84"/>
+      <selection pane="bottomLeft" activeCell="Q71" sqref="Q71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.26953125" defaultRowHeight="14" x14ac:dyDescent="0.35"/>
@@ -5195,25 +5195,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="78" t="s">
+      <c r="A1" s="79" t="s">
         <v>242</v>
       </c>
-      <c r="B1" s="79"/>
-      <c r="C1" s="79"/>
-      <c r="D1" s="79"/>
-      <c r="E1" s="79"/>
-      <c r="F1" s="79"/>
-      <c r="G1" s="79"/>
-      <c r="H1" s="79"/>
-      <c r="I1" s="79"/>
-      <c r="J1" s="79"/>
-      <c r="K1" s="79"/>
-      <c r="L1" s="79"/>
-      <c r="M1" s="79"/>
-      <c r="N1" s="79"/>
-      <c r="O1" s="80"/>
-      <c r="P1" s="79"/>
-      <c r="Q1" s="81"/>
+      <c r="B1" s="80"/>
+      <c r="C1" s="80"/>
+      <c r="D1" s="80"/>
+      <c r="E1" s="80"/>
+      <c r="F1" s="80"/>
+      <c r="G1" s="80"/>
+      <c r="H1" s="80"/>
+      <c r="I1" s="80"/>
+      <c r="J1" s="80"/>
+      <c r="K1" s="80"/>
+      <c r="L1" s="80"/>
+      <c r="M1" s="80"/>
+      <c r="N1" s="80"/>
+      <c r="O1" s="81"/>
+      <c r="P1" s="80"/>
+      <c r="Q1" s="82"/>
     </row>
     <row r="2" spans="1:17" ht="42" x14ac:dyDescent="0.35">
       <c r="A2" s="19" t="s">
@@ -8579,7 +8579,7 @@
       <c r="N71" s="43">
         <v>15</v>
       </c>
-      <c r="O71" s="82" t="s">
+      <c r="O71" s="78" t="s">
         <v>257</v>
       </c>
       <c r="P71" s="5" t="s">
@@ -9369,26 +9369,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <LikesCount xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <Ratings xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <LikedBy xmlns="http://schemas.microsoft.com/sharepoint/v3">
-      <UserInfo>
-        <DisplayName/>
-        <AccountId xsi:nil="true"/>
-        <AccountType/>
-      </UserInfo>
-    </LikedBy>
-    <RatedBy xmlns="http://schemas.microsoft.com/sharepoint/v3">
-      <UserInfo>
-        <DisplayName/>
-        <AccountId xsi:nil="true"/>
-        <AccountType/>
-      </UserInfo>
-    </RatedBy>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -9564,26 +9550,32 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <LikesCount xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <Ratings xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <LikedBy xmlns="http://schemas.microsoft.com/sharepoint/v3">
+      <UserInfo>
+        <DisplayName/>
+        <AccountId xsi:nil="true"/>
+        <AccountType/>
+      </UserInfo>
+    </LikedBy>
+    <RatedBy xmlns="http://schemas.microsoft.com/sharepoint/v3">
+      <UserInfo>
+        <DisplayName/>
+        <AccountId xsi:nil="true"/>
+        <AccountType/>
+      </UserInfo>
+    </RatedBy>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0212785F-078B-445B-9297-945E33C92ACD}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6B8E61E4-4805-4EED-8CD4-7E0EB2F2E46E}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -9607,9 +9599,17 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6B8E61E4-4805-4EED-8CD4-7E0EB2F2E46E}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0212785F-078B-445B-9297-945E33C92ACD}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/requirements/MOSIP_FeaturesRoadmap.xlsx
+++ b/requirements/MOSIP_FeaturesRoadmap.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\M1045452\Documents\GitHub\mosip\requirements\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\m1032103\git-repo\mosip\requirements\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37EFAD6E-1406-4882-991D-55AEE15BD9DE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{D6EDDC3F-0A0F-4EC3-9AB5-CE02AF9ED912}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9680" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9675" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="MOSIP_Feature_Roadmap" sheetId="5" r:id="rId1"/>
@@ -19,9 +19,9 @@
     <sheet name="Status Legends" sheetId="8" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">MOSIP_Feature_Roadmap!$A$2:$Q$83</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">MOSIP_Feature_Roadmap!$A$2:$Q$84</definedName>
   </definedNames>
-  <calcPr calcId="179021"/>
+  <calcPr calcId="179017"/>
   <pivotCaches>
     <pivotCache cacheId="0" r:id="rId5"/>
   </pivotCaches>
@@ -30,17 +30,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="798" uniqueCount="258">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="806" uniqueCount="259">
   <si>
     <t>S.No.</t>
   </si>
@@ -3064,6 +3059,31 @@
   <si>
     <t>Dev in Progress
 Kernel is developing API for the same</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>Additional eKYC API for authentication by an authorized agency</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>:
+i. GoM will require an additional API 
+ii. MOSIP to provide an additional API to fetch specific data of an individual based on UIN number (Evaluate security aspect, as linking of HoF and maintenance of family relationship will be required as a security imperative) and send to Social Protection Data System
+iii. MOSIP to provide a mechanism to record the consent of HoF
+iv. This is required to accommodate Household Program of GoM</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -5164,37 +5184,36 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr filterMode="1"/>
-  <dimension ref="A1:S83"/>
+  <dimension ref="A1:S84"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A71" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="Q71" sqref="Q71"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A81" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A85" sqref="A85"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.26953125" defaultRowHeight="14" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="20.28515625" defaultRowHeight="14.25" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.453125" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.42578125" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14" style="2" customWidth="1"/>
-    <col min="3" max="3" width="30.453125" style="2" customWidth="1"/>
-    <col min="4" max="4" width="15.7265625" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.7265625" style="3" customWidth="1"/>
-    <col min="6" max="6" width="71.1796875" style="3" customWidth="1"/>
-    <col min="7" max="7" width="13.26953125" style="17" customWidth="1"/>
-    <col min="8" max="8" width="44.453125" style="3" customWidth="1"/>
-    <col min="9" max="9" width="9.26953125" style="3" customWidth="1"/>
-    <col min="10" max="10" width="20.81640625" style="3" customWidth="1"/>
-    <col min="11" max="11" width="12.26953125" style="3" customWidth="1"/>
-    <col min="12" max="12" width="12.54296875" style="3" customWidth="1"/>
-    <col min="13" max="13" width="15.1796875" style="29" customWidth="1"/>
-    <col min="14" max="14" width="15.81640625" style="2" customWidth="1"/>
-    <col min="15" max="15" width="15.81640625" style="11" customWidth="1"/>
-    <col min="16" max="16" width="15.81640625" style="2" customWidth="1"/>
-    <col min="17" max="17" width="53.7265625" style="3" customWidth="1"/>
-    <col min="18" max="16384" width="20.26953125" style="11"/>
+    <col min="3" max="3" width="30.42578125" style="2" customWidth="1"/>
+    <col min="4" max="4" width="15.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.7109375" style="3" customWidth="1"/>
+    <col min="6" max="6" width="71.140625" style="3" customWidth="1"/>
+    <col min="7" max="7" width="13.28515625" style="17" customWidth="1"/>
+    <col min="8" max="8" width="44.42578125" style="3" customWidth="1"/>
+    <col min="9" max="9" width="9.28515625" style="3" customWidth="1"/>
+    <col min="10" max="10" width="20.85546875" style="3" customWidth="1"/>
+    <col min="11" max="11" width="12.28515625" style="3" customWidth="1"/>
+    <col min="12" max="12" width="12.5703125" style="3" customWidth="1"/>
+    <col min="13" max="13" width="15.140625" style="29" customWidth="1"/>
+    <col min="14" max="14" width="15.85546875" style="2" customWidth="1"/>
+    <col min="15" max="15" width="15.85546875" style="11" customWidth="1"/>
+    <col min="16" max="16" width="15.85546875" style="2" customWidth="1"/>
+    <col min="17" max="17" width="53.7109375" style="3" customWidth="1"/>
+    <col min="18" max="16384" width="20.28515625" style="11"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:17" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="79" t="s">
         <v>242</v>
       </c>
@@ -5215,7 +5234,7 @@
       <c r="P1" s="80"/>
       <c r="Q1" s="82"/>
     </row>
-    <row r="2" spans="1:17" ht="42" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:17" ht="57" x14ac:dyDescent="0.25">
       <c r="A2" s="19" t="s">
         <v>0</v>
       </c>
@@ -5268,7 +5287,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:17" s="4" customFormat="1" ht="112" hidden="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:17" s="4" customFormat="1" ht="114" x14ac:dyDescent="0.25">
       <c r="A3" s="5">
         <v>1</v>
       </c>
@@ -5317,7 +5336,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="1:17" s="4" customFormat="1" ht="56" hidden="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:17" s="4" customFormat="1" ht="57" x14ac:dyDescent="0.25">
       <c r="A4" s="5">
         <v>2</v>
       </c>
@@ -5366,7 +5385,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="5" spans="1:17" s="4" customFormat="1" ht="70" hidden="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:17" s="4" customFormat="1" ht="71.25" x14ac:dyDescent="0.25">
       <c r="A5" s="5">
         <v>3</v>
       </c>
@@ -5415,7 +5434,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="6" spans="1:17" s="4" customFormat="1" ht="56" hidden="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:17" s="4" customFormat="1" ht="57" x14ac:dyDescent="0.25">
       <c r="A6" s="5">
         <v>4</v>
       </c>
@@ -5464,7 +5483,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="7" spans="1:17" s="1" customFormat="1" ht="42" hidden="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:17" s="1" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A7" s="5">
         <v>5</v>
       </c>
@@ -5511,7 +5530,7 @@
       <c r="P7" s="32"/>
       <c r="Q7" s="22"/>
     </row>
-    <row r="8" spans="1:17" s="1" customFormat="1" ht="56" hidden="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:17" s="1" customFormat="1" ht="57" x14ac:dyDescent="0.2">
       <c r="A8" s="5">
         <v>6</v>
       </c>
@@ -5558,7 +5577,7 @@
       <c r="P8" s="32"/>
       <c r="Q8" s="22"/>
     </row>
-    <row r="9" spans="1:17" s="1" customFormat="1" ht="210" hidden="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:17" s="1" customFormat="1" ht="213.75" x14ac:dyDescent="0.2">
       <c r="A9" s="5">
         <v>7</v>
       </c>
@@ -5604,7 +5623,7 @@
       <c r="P9" s="32"/>
       <c r="Q9" s="22"/>
     </row>
-    <row r="10" spans="1:17" s="1" customFormat="1" ht="56" hidden="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:17" s="1" customFormat="1" ht="71.25" x14ac:dyDescent="0.2">
       <c r="A10" s="5">
         <v>8</v>
       </c>
@@ -5653,7 +5672,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="11" spans="1:17" s="1" customFormat="1" ht="120" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:17" s="1" customFormat="1" ht="120" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="5">
         <v>9</v>
       </c>
@@ -5706,7 +5725,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="12" spans="1:17" s="1" customFormat="1" ht="126.65" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:17" s="1" customFormat="1" ht="126.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="5">
         <v>10</v>
       </c>
@@ -5759,7 +5778,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="13" spans="1:17" s="4" customFormat="1" ht="154" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:17" s="4" customFormat="1" ht="171" x14ac:dyDescent="0.25">
       <c r="A13" s="5">
         <v>11</v>
       </c>
@@ -5812,7 +5831,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="14" spans="1:17" s="1" customFormat="1" ht="98" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:17" s="1" customFormat="1" ht="114" x14ac:dyDescent="0.2">
       <c r="A14" s="5">
         <v>12</v>
       </c>
@@ -5865,7 +5884,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="15" spans="1:17" s="4" customFormat="1" ht="98" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:17" s="4" customFormat="1" ht="114" x14ac:dyDescent="0.25">
       <c r="A15" s="5">
         <v>13</v>
       </c>
@@ -5918,7 +5937,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="16" spans="1:17" s="1" customFormat="1" ht="42" hidden="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:17" s="1" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A16" s="5">
         <v>14</v>
       </c>
@@ -5959,7 +5978,7 @@
       <c r="P16" s="32"/>
       <c r="Q16" s="22"/>
     </row>
-    <row r="17" spans="1:17" s="4" customFormat="1" ht="42" hidden="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:17" s="4" customFormat="1" ht="42.75" x14ac:dyDescent="0.25">
       <c r="A17" s="5">
         <v>15</v>
       </c>
@@ -6000,7 +6019,7 @@
       <c r="P17" s="32"/>
       <c r="Q17" s="22"/>
     </row>
-    <row r="18" spans="1:17" ht="84" hidden="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:17" ht="99.75" x14ac:dyDescent="0.25">
       <c r="A18" s="5">
         <v>16</v>
       </c>
@@ -6049,7 +6068,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="19" spans="1:17" ht="84" hidden="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:17" ht="99.75" x14ac:dyDescent="0.25">
       <c r="A19" s="5">
         <v>17</v>
       </c>
@@ -6098,7 +6117,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="20" spans="1:17" ht="84" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:17" ht="99.75" x14ac:dyDescent="0.25">
       <c r="A20" s="5">
         <v>18</v>
       </c>
@@ -6151,7 +6170,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="21" spans="1:17" ht="84" hidden="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:17" ht="85.5" x14ac:dyDescent="0.25">
       <c r="A21" s="5">
         <v>19</v>
       </c>
@@ -6194,7 +6213,7 @@
       <c r="P21" s="32"/>
       <c r="Q21" s="22"/>
     </row>
-    <row r="22" spans="1:17" ht="84" hidden="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:17" ht="99.75" x14ac:dyDescent="0.25">
       <c r="A22" s="5">
         <v>20</v>
       </c>
@@ -6237,7 +6256,7 @@
       <c r="P22" s="32"/>
       <c r="Q22" s="22"/>
     </row>
-    <row r="23" spans="1:17" ht="84" hidden="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:17" ht="99.75" x14ac:dyDescent="0.25">
       <c r="A23" s="5">
         <v>21</v>
       </c>
@@ -6286,7 +6305,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="24" spans="1:17" ht="84" hidden="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:17" ht="85.5" x14ac:dyDescent="0.25">
       <c r="A24" s="5">
         <v>22</v>
       </c>
@@ -6335,7 +6354,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="25" spans="1:17" ht="84" hidden="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:17" ht="85.5" x14ac:dyDescent="0.25">
       <c r="A25" s="5">
         <v>23</v>
       </c>
@@ -6378,7 +6397,7 @@
       <c r="P25" s="32"/>
       <c r="Q25" s="22"/>
     </row>
-    <row r="26" spans="1:17" ht="42" hidden="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:17" ht="42.75" x14ac:dyDescent="0.25">
       <c r="A26" s="5">
         <v>24</v>
       </c>
@@ -6425,7 +6444,7 @@
       <c r="P26" s="32"/>
       <c r="Q26" s="15"/>
     </row>
-    <row r="27" spans="1:17" ht="101.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:17" ht="101.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="5">
         <v>25</v>
       </c>
@@ -6478,7 +6497,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="28" spans="1:17" ht="42" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:17" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="5">
         <v>26</v>
       </c>
@@ -6525,7 +6544,7 @@
       <c r="P28" s="32"/>
       <c r="Q28" s="34"/>
     </row>
-    <row r="29" spans="1:17" s="8" customFormat="1" ht="84" hidden="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:17" s="8" customFormat="1" ht="85.5" x14ac:dyDescent="0.25">
       <c r="A29" s="5">
         <v>27</v>
       </c>
@@ -6574,7 +6593,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="30" spans="1:17" s="8" customFormat="1" ht="42" hidden="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:17" s="8" customFormat="1" ht="42.75" x14ac:dyDescent="0.25">
       <c r="A30" s="5">
         <v>28</v>
       </c>
@@ -6623,7 +6642,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="31" spans="1:17" ht="42" hidden="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:17" ht="42.75" x14ac:dyDescent="0.25">
       <c r="A31" s="5">
         <v>29</v>
       </c>
@@ -6670,7 +6689,7 @@
       <c r="P31" s="32"/>
       <c r="Q31" s="15"/>
     </row>
-    <row r="32" spans="1:17" ht="126" hidden="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:17" ht="128.25" x14ac:dyDescent="0.25">
       <c r="A32" s="5">
         <v>30</v>
       </c>
@@ -6719,7 +6738,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="33" spans="1:17" ht="70" hidden="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:17" ht="71.25" x14ac:dyDescent="0.25">
       <c r="A33" s="5">
         <v>31</v>
       </c>
@@ -6768,7 +6787,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="34" spans="1:17" ht="140" hidden="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:17" ht="142.5" x14ac:dyDescent="0.25">
       <c r="A34" s="5">
         <v>32</v>
       </c>
@@ -6817,7 +6836,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="35" spans="1:17" ht="70" hidden="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:17" ht="71.25" x14ac:dyDescent="0.25">
       <c r="A35" s="5">
         <v>33</v>
       </c>
@@ -6866,7 +6885,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="36" spans="1:17" ht="36" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:17" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="5">
         <v>34</v>
       </c>
@@ -6909,7 +6928,7 @@
       <c r="P36" s="32"/>
       <c r="Q36" s="34"/>
     </row>
-    <row r="37" spans="1:17" ht="28" hidden="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:17" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A37" s="5">
         <v>35</v>
       </c>
@@ -6955,7 +6974,7 @@
       <c r="P37" s="32"/>
       <c r="Q37" s="34"/>
     </row>
-    <row r="38" spans="1:17" ht="28" hidden="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:17" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A38" s="5">
         <v>36</v>
       </c>
@@ -7003,7 +7022,7 @@
       <c r="P38" s="32"/>
       <c r="Q38" s="34"/>
     </row>
-    <row r="39" spans="1:17" ht="28" hidden="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:17" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A39" s="5">
         <v>37</v>
       </c>
@@ -7049,7 +7068,7 @@
       <c r="P39" s="32"/>
       <c r="Q39" s="34"/>
     </row>
-    <row r="40" spans="1:17" ht="252" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:17" ht="256.5" x14ac:dyDescent="0.25">
       <c r="A40" s="5">
         <v>38</v>
       </c>
@@ -7100,7 +7119,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="41" spans="1:17" ht="98" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:17" ht="99.75" x14ac:dyDescent="0.25">
       <c r="A41" s="5">
         <v>40</v>
       </c>
@@ -7147,7 +7166,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="42" spans="1:17" ht="83.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:17" ht="83.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="5">
         <v>41</v>
       </c>
@@ -7200,7 +7219,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="43" spans="1:17" ht="126" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:17" ht="99.75" x14ac:dyDescent="0.25">
       <c r="A43" s="5">
         <v>42</v>
       </c>
@@ -7253,7 +7272,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="44" spans="1:17" ht="56" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:17" ht="57" x14ac:dyDescent="0.25">
       <c r="A44" s="5">
         <v>45</v>
       </c>
@@ -7296,7 +7315,7 @@
       <c r="P44" s="32"/>
       <c r="Q44" s="34"/>
     </row>
-    <row r="45" spans="1:17" ht="70" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:17" ht="57" x14ac:dyDescent="0.25">
       <c r="A45" s="5">
         <v>46</v>
       </c>
@@ -7349,7 +7368,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="46" spans="1:17" ht="56" hidden="1" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:17" ht="57" x14ac:dyDescent="0.25">
       <c r="A46" s="5">
         <v>47</v>
       </c>
@@ -7398,7 +7417,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="47" spans="1:17" ht="42" hidden="1" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:17" ht="42.75" x14ac:dyDescent="0.25">
       <c r="A47" s="5">
         <v>48</v>
       </c>
@@ -7444,7 +7463,7 @@
       <c r="P47" s="32"/>
       <c r="Q47" s="34"/>
     </row>
-    <row r="48" spans="1:17" ht="140" hidden="1" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:17" ht="156.75" x14ac:dyDescent="0.25">
       <c r="A48" s="5">
         <v>49</v>
       </c>
@@ -7487,7 +7506,7 @@
       <c r="P48" s="32"/>
       <c r="Q48" s="34"/>
     </row>
-    <row r="49" spans="1:17" ht="42" hidden="1" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:17" ht="42.75" x14ac:dyDescent="0.25">
       <c r="A49" s="5">
         <v>50</v>
       </c>
@@ -7536,7 +7555,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="50" spans="1:17" ht="42" hidden="1" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:17" ht="42.75" x14ac:dyDescent="0.25">
       <c r="A50" s="5">
         <v>51</v>
       </c>
@@ -7579,7 +7598,7 @@
       <c r="P50" s="32"/>
       <c r="Q50" s="34"/>
     </row>
-    <row r="51" spans="1:17" ht="28" hidden="1" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:17" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A51" s="5">
         <v>52</v>
       </c>
@@ -7625,7 +7644,7 @@
       <c r="P51" s="32"/>
       <c r="Q51" s="34"/>
     </row>
-    <row r="52" spans="1:17" ht="42" hidden="1" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:17" ht="42.75" x14ac:dyDescent="0.25">
       <c r="A52" s="5">
         <v>53</v>
       </c>
@@ -7674,7 +7693,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="53" spans="1:17" ht="84" hidden="1" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:17" ht="57" x14ac:dyDescent="0.25">
       <c r="A53" s="5">
         <v>54</v>
       </c>
@@ -7723,7 +7742,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="54" spans="1:17" ht="42" hidden="1" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:17" ht="42.75" x14ac:dyDescent="0.25">
       <c r="A54" s="5">
         <v>55</v>
       </c>
@@ -7769,7 +7788,7 @@
       <c r="P54" s="32"/>
       <c r="Q54" s="34"/>
     </row>
-    <row r="55" spans="1:17" ht="56" hidden="1" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:17" ht="57" x14ac:dyDescent="0.25">
       <c r="A55" s="5">
         <v>56</v>
       </c>
@@ -7815,7 +7834,7 @@
       <c r="P55" s="32"/>
       <c r="Q55" s="34"/>
     </row>
-    <row r="56" spans="1:17" ht="70" hidden="1" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:17" ht="71.25" x14ac:dyDescent="0.25">
       <c r="A56" s="5">
         <v>57</v>
       </c>
@@ -7862,7 +7881,7 @@
       <c r="P56" s="32"/>
       <c r="Q56" s="34"/>
     </row>
-    <row r="57" spans="1:17" ht="42" hidden="1" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:17" ht="42.75" x14ac:dyDescent="0.25">
       <c r="A57" s="5">
         <v>58</v>
       </c>
@@ -7911,7 +7930,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="58" spans="1:17" ht="84" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:17" ht="71.25" x14ac:dyDescent="0.25">
       <c r="A58" s="5">
         <v>59</v>
       </c>
@@ -7964,7 +7983,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="59" spans="1:17" ht="84" hidden="1" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:17" ht="99.75" x14ac:dyDescent="0.25">
       <c r="A59" s="5">
         <v>60</v>
       </c>
@@ -8007,7 +8026,7 @@
       <c r="P59" s="35"/>
       <c r="Q59" s="34"/>
     </row>
-    <row r="60" spans="1:17" ht="56" hidden="1" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:17" ht="57" x14ac:dyDescent="0.25">
       <c r="A60" s="5">
         <v>61</v>
       </c>
@@ -8050,7 +8069,7 @@
       <c r="P60" s="35"/>
       <c r="Q60" s="34"/>
     </row>
-    <row r="61" spans="1:17" ht="154" hidden="1" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:17" ht="171" x14ac:dyDescent="0.25">
       <c r="A61" s="5">
         <v>62</v>
       </c>
@@ -8099,7 +8118,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="62" spans="1:17" ht="98" hidden="1" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:17" ht="99.75" x14ac:dyDescent="0.25">
       <c r="A62" s="5">
         <v>63</v>
       </c>
@@ -8148,7 +8167,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="63" spans="1:17" ht="98" hidden="1" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:17" ht="99.75" x14ac:dyDescent="0.25">
       <c r="A63" s="5">
         <v>64</v>
       </c>
@@ -8197,7 +8216,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="64" spans="1:17" ht="210" hidden="1" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:17" ht="228" x14ac:dyDescent="0.25">
       <c r="A64" s="5">
         <v>65</v>
       </c>
@@ -8244,7 +8263,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="65" spans="1:19" ht="42" hidden="1" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:19" ht="42.75" x14ac:dyDescent="0.25">
       <c r="A65" s="5">
         <v>66</v>
       </c>
@@ -8289,7 +8308,7 @@
       <c r="P65" s="5"/>
       <c r="Q65" s="34"/>
     </row>
-    <row r="66" spans="1:19" ht="106.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:19" ht="106.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="5">
         <v>67</v>
       </c>
@@ -8336,7 +8355,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="67" spans="1:19" ht="112" hidden="1" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:19" ht="114" x14ac:dyDescent="0.25">
       <c r="A67" s="5">
         <v>68</v>
       </c>
@@ -8387,7 +8406,7 @@
       <c r="R67" s="5"/>
       <c r="S67" s="34"/>
     </row>
-    <row r="68" spans="1:19" ht="112" hidden="1" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:19" ht="128.25" x14ac:dyDescent="0.25">
       <c r="A68" s="5">
         <v>69</v>
       </c>
@@ -8434,7 +8453,7 @@
       <c r="R68" s="41"/>
       <c r="S68" s="30"/>
     </row>
-    <row r="69" spans="1:19" ht="84" hidden="1" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:19" ht="85.5" x14ac:dyDescent="0.25">
       <c r="A69" s="5">
         <v>70</v>
       </c>
@@ -8483,7 +8502,7 @@
       <c r="R69" s="5"/>
       <c r="S69" s="34"/>
     </row>
-    <row r="70" spans="1:19" ht="70" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:19" ht="85.5" x14ac:dyDescent="0.25">
       <c r="A70" s="5">
         <v>71</v>
       </c>
@@ -8536,7 +8555,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="71" spans="1:19" ht="98" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:19" ht="99.75" x14ac:dyDescent="0.25">
       <c r="A71" s="5">
         <v>72</v>
       </c>
@@ -8589,7 +8608,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="72" spans="1:19" ht="126" hidden="1" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:19" ht="128.25" x14ac:dyDescent="0.25">
       <c r="A72" s="5">
         <v>73</v>
       </c>
@@ -8634,7 +8653,7 @@
       <c r="R72" s="5"/>
       <c r="S72" s="34"/>
     </row>
-    <row r="73" spans="1:19" ht="84" hidden="1" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:19" ht="99.75" x14ac:dyDescent="0.25">
       <c r="A73" s="5">
         <v>74</v>
       </c>
@@ -8679,7 +8698,7 @@
       <c r="R73" s="5"/>
       <c r="S73" s="34"/>
     </row>
-    <row r="74" spans="1:19" ht="56" hidden="1" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:19" ht="57" x14ac:dyDescent="0.25">
       <c r="A74" s="5">
         <v>75</v>
       </c>
@@ -8724,7 +8743,7 @@
       <c r="R74" s="5"/>
       <c r="S74" s="34"/>
     </row>
-    <row r="75" spans="1:19" ht="56" hidden="1" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:19" ht="57" x14ac:dyDescent="0.25">
       <c r="A75" s="5">
         <v>76</v>
       </c>
@@ -8769,7 +8788,7 @@
       <c r="R75" s="77"/>
       <c r="S75" s="34"/>
     </row>
-    <row r="76" spans="1:19" ht="140" hidden="1" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:19" ht="142.5" x14ac:dyDescent="0.25">
       <c r="A76" s="5">
         <v>77</v>
       </c>
@@ -8814,7 +8833,7 @@
       <c r="R76" s="77"/>
       <c r="S76" s="34"/>
     </row>
-    <row r="77" spans="1:19" ht="112" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:19" ht="114" x14ac:dyDescent="0.25">
       <c r="A77" s="5">
         <v>78</v>
       </c>
@@ -8867,7 +8886,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="78" spans="1:19" ht="42" hidden="1" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:19" ht="42.75" x14ac:dyDescent="0.25">
       <c r="A78" s="5">
         <v>79</v>
       </c>
@@ -8910,7 +8929,7 @@
       <c r="P78" s="5"/>
       <c r="Q78" s="34"/>
     </row>
-    <row r="79" spans="1:19" ht="56" hidden="1" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:19" ht="57" x14ac:dyDescent="0.25">
       <c r="A79" s="5">
         <v>80</v>
       </c>
@@ -8953,7 +8972,7 @@
       <c r="P79" s="5"/>
       <c r="Q79" s="34"/>
     </row>
-    <row r="80" spans="1:19" ht="84" hidden="1" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:19" ht="85.5" x14ac:dyDescent="0.25">
       <c r="A80" s="5">
         <v>81</v>
       </c>
@@ -8996,7 +9015,7 @@
       <c r="P80" s="5"/>
       <c r="Q80" s="34"/>
     </row>
-    <row r="81" spans="1:17" ht="98" hidden="1" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:17" ht="114" x14ac:dyDescent="0.25">
       <c r="A81" s="5">
         <v>82</v>
       </c>
@@ -9039,7 +9058,7 @@
       <c r="P81" s="5"/>
       <c r="Q81" s="34"/>
     </row>
-    <row r="82" spans="1:17" ht="70" hidden="1" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:17" ht="114" x14ac:dyDescent="0.25">
       <c r="A82" s="5">
         <v>83</v>
       </c>
@@ -9050,13 +9069,13 @@
         <v>243</v>
       </c>
       <c r="D82" s="34" t="s">
-        <v>245</v>
+        <v>38</v>
       </c>
       <c r="E82" s="34" t="s">
         <v>31</v>
       </c>
       <c r="F82" s="34" t="s">
-        <v>252</v>
+        <v>258</v>
       </c>
       <c r="G82" s="15" t="s">
         <v>45</v>
@@ -9082,7 +9101,7 @@
       <c r="P82" s="5"/>
       <c r="Q82" s="34"/>
     </row>
-    <row r="83" spans="1:17" ht="56" hidden="1" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:17" ht="71.25" x14ac:dyDescent="0.25">
       <c r="A83" s="5">
         <v>84</v>
       </c>
@@ -9093,13 +9112,13 @@
         <v>243</v>
       </c>
       <c r="D83" s="34" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="E83" s="34" t="s">
         <v>31</v>
       </c>
       <c r="F83" s="34" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="G83" s="15" t="s">
         <v>45</v>
@@ -9125,14 +9144,51 @@
       <c r="P83" s="5"/>
       <c r="Q83" s="34"/>
     </row>
+    <row r="84" spans="1:17" ht="57" x14ac:dyDescent="0.25">
+      <c r="A84" s="5">
+        <v>85</v>
+      </c>
+      <c r="B84" s="6">
+        <v>43477</v>
+      </c>
+      <c r="C84" s="34" t="s">
+        <v>243</v>
+      </c>
+      <c r="D84" s="34" t="s">
+        <v>246</v>
+      </c>
+      <c r="E84" s="34" t="s">
+        <v>31</v>
+      </c>
+      <c r="F84" s="34" t="s">
+        <v>253</v>
+      </c>
+      <c r="G84" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="H84" s="34" t="s">
+        <v>97</v>
+      </c>
+      <c r="I84" s="34">
+        <v>1</v>
+      </c>
+      <c r="J84" s="34" t="s">
+        <v>85</v>
+      </c>
+      <c r="K84" s="34" t="s">
+        <v>244</v>
+      </c>
+      <c r="L84" s="22">
+        <v>43477</v>
+      </c>
+      <c r="M84" s="33"/>
+      <c r="N84" s="5"/>
+      <c r="O84" s="35"/>
+      <c r="P84" s="5"/>
+      <c r="Q84" s="34"/>
+    </row>
   </sheetData>
-  <autoFilter ref="A2:Q83" xr:uid="{00000000-0009-0000-0000-000000000000}">
-    <filterColumn colId="3">
-      <filters>
-        <filter val="Registration Processor"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A2:Q84" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <mergeCells count="1">
     <mergeCell ref="A1:Q1"/>
   </mergeCells>
@@ -9147,52 +9203,52 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="34.1796875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="34.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B3" s="12" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B4" s="7" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="5" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B5" s="7" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B6" s="7" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="7" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="7" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B7" s="7" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="8" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B8" s="10" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="9" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="9" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B9" s="10" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="10" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="10" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B10" s="10" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="11" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="11" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B11" s="10"/>
     </row>
   </sheetData>
@@ -9207,14 +9263,14 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="34.1796875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.81640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.453125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="34.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="36" t="s">
         <v>169</v>
       </c>
@@ -9225,7 +9281,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="37" t="s">
         <v>83</v>
       </c>
@@ -9236,7 +9292,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="37" t="s">
         <v>38</v>
       </c>
@@ -9247,7 +9303,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="37" t="s">
         <v>142</v>
       </c>
@@ -9258,7 +9314,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="37" t="s">
         <v>91</v>
       </c>
@@ -9269,7 +9325,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="37" t="s">
         <v>15</v>
       </c>
@@ -9280,7 +9336,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="37" t="s">
         <v>47</v>
       </c>
@@ -9291,7 +9347,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="37" t="s">
         <v>60</v>
       </c>
@@ -9302,7 +9358,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="37" t="s">
         <v>170</v>
       </c>
@@ -9325,12 +9381,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="52.1796875" customWidth="1"/>
+    <col min="3" max="3" width="52.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B1" s="69" t="s">
         <v>240</v>
       </c>
@@ -9338,25 +9394,25 @@
         <v>241</v>
       </c>
     </row>
-    <row r="2" spans="2:3" ht="31" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="2:3" ht="30.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="71"/>
       <c r="C2" s="72" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="3" spans="2:3" ht="31" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="2:3" ht="30.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="73"/>
       <c r="C3" s="72" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="4" spans="2:3" ht="31" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="2:3" ht="30.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="74"/>
       <c r="C4" s="72" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="5" spans="2:3" ht="31" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="2:3" ht="30.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B5" s="75"/>
       <c r="C5" s="76" t="s">
         <v>239</v>
@@ -9369,15 +9425,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100D32E068FDE16E34B8075022FB1536456" ma:contentTypeVersion="5" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="d905b7d076fda08b8ad7ac1f301e6870">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="7784986bdb25cf89cb05135ef15ccb6c" ns1:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -9549,6 +9596,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
@@ -9573,14 +9629,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6B8E61E4-4805-4EED-8CD4-7E0EB2F2E46E}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{62A013D4-4E69-4E0D-8B8F-1AA53B7A2CEA}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -9594,6 +9642,14 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6B8E61E4-4805-4EED-8CD4-7E0EB2F2E46E}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
